--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_4_36.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_4_36.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2286020.214341196</v>
+        <v>2397206.560163054</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13236035.67526078</v>
+        <v>11843801.51954496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1763776.908577128</v>
+        <v>612367.9462114754</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5838993.097517315</v>
+        <v>6167534.139071009</v>
       </c>
     </row>
     <row r="11">
@@ -659,13 +661,13 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
-        <v>77.1433618514711</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
-        <v>19.05969460684969</v>
+        <v>194.9590650710655</v>
       </c>
       <c r="E2" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
         <v>20.87293999249374</v>
@@ -677,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -722,10 +724,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y2" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>170.2528374898731</v>
@@ -826,13 +828,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
         <v>98.77088257712678</v>
@@ -871,19 +873,19 @@
         <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>265.3329624140873</v>
+        <v>216.7925566610845</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -905,16 +907,16 @@
         <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
-        <v>354.2060053732699</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G5" t="n">
         <v>0.2956717864458369</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,19 +946,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>279.2563878319383</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
         <v>7.602798843930202</v>
@@ -1051,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>56.0632790900662</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
         <v>164.5944000087102</v>
@@ -1099,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>37.42556635978429</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
         <v>168.4336970060565</v>
@@ -1111,16 +1113,16 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
         <v>422.6317226868329</v>
@@ -1139,19 +1141,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F8" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G8" t="n">
-        <v>47.23474715374056</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>154.6054260348455</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1288,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
         <v>170.1431564831852</v>
@@ -1306,7 +1308,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
         <v>98.77088257712678</v>
@@ -1336,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>31.89652046695856</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>74.37464430409996</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1372,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
         <v>419.0596946068497</v>
@@ -1388,7 +1390,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>141.6125865371557</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>353.9145207250137</v>
       </c>
       <c r="W11" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>98.15366458399258</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
         <v>168.4336970060565</v>
@@ -1588,13 +1590,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>168.6740495283815</v>
       </c>
     </row>
     <row r="14">
@@ -1607,7 +1609,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
         <v>419.0596946068497</v>
@@ -1622,7 +1624,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
         <v>34.5479025439635</v>
@@ -1655,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>103.3236211855919</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>202.7535635798733</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
         <v>392.4274362026566</v>
@@ -1765,7 +1767,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>161.683605144497</v>
@@ -1777,10 +1779,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>234.3692901880346</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>240.1382575886529</v>
+        <v>215.7583788927478</v>
       </c>
       <c r="Y16" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1999,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
         <v>161.683605144497</v>
@@ -2011,16 +2013,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>84.12052806802377</v>
       </c>
       <c r="G19" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,22 +2049,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>158.4749497964603</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>240.1382575886529</v>
@@ -2087,7 +2089,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>421.717170453621</v>
+        <v>421.717170453622</v>
       </c>
       <c r="F20" t="n">
         <v>420.8729399924937</v>
@@ -2242,22 +2244,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>9.807831279350324</v>
       </c>
       <c r="I22" t="n">
-        <v>97.62252505704801</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -2473,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
         <v>168.4336970060565</v>
@@ -2533,16 +2535,16 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>278.8943527180514</v>
+        <v>74.24516229464197</v>
       </c>
       <c r="W25" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>180.3658596433067</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -2713,13 +2715,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>52.8442943510866</v>
       </c>
       <c r="E28" t="n">
-        <v>149.7181052831735</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,10 +2730,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>277.3826040146988</v>
@@ -2953,13 +2955,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>51.58543740429501</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>98.15366458399268</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
         <v>168.4336970060565</v>
@@ -3187,19 +3189,19 @@
         <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>60.1546697496713</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>120.0693374786934</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3232,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
         <v>278.8943527180514</v>
@@ -3263,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>415.6498806486147</v>
+        <v>415.6498806486148</v>
       </c>
       <c r="C35" t="n">
         <v>422.6317226868329</v>
@@ -3272,19 +3274,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
-        <v>421.717170453621</v>
+        <v>421.7171704536211</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8729399924937</v>
+        <v>420.8729399924938</v>
       </c>
       <c r="G35" t="n">
-        <v>400.2956717864458</v>
+        <v>400.2956717864459</v>
       </c>
       <c r="H35" t="n">
-        <v>294.8896947407055</v>
+        <v>294.8896947407056</v>
       </c>
       <c r="I35" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396359</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855911</v>
       </c>
       <c r="T35" t="n">
-        <v>218.7163152458132</v>
+        <v>218.7163152458133</v>
       </c>
       <c r="U35" t="n">
-        <v>255.7713603095518</v>
+        <v>255.7713603095519</v>
       </c>
       <c r="V35" t="n">
-        <v>353.914520725013</v>
+        <v>353.9145207250131</v>
       </c>
       <c r="W35" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>407.6027988439302</v>
+        <v>407.6027988439303</v>
       </c>
       <c r="Y35" t="n">
         <v>401.2838973446586</v>
@@ -3427,16 +3429,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>98.15366458399268</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>96.44420510686396</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3472,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
         <v>240.905954296359</v>
@@ -3509,7 +3511,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>421.7171704536211</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
         <v>420.8729399924937</v>
@@ -3664,22 +3666,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,16 +3711,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>96.44420510686429</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W40" t="n">
         <v>272.1038797892121</v>
@@ -3740,7 +3742,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
         <v>419.0596946068497</v>
@@ -3749,16 +3751,16 @@
         <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
         <v>218.7163152458132</v>
@@ -3797,7 +3799,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
-        <v>183.6867305609639</v>
+        <v>353.9145207250137</v>
       </c>
       <c r="W41" t="n">
         <v>392.4274362026566</v>
@@ -3895,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>102.1509188080621</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
         <v>164.546123788675</v>
@@ -3910,10 +3912,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3952,10 +3954,10 @@
         <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>207.8030361157463</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
@@ -3986,16 +3988,16 @@
         <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>235.5426834294963</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.7163152458137</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
         <v>392.4274362026566</v>
@@ -4147,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>104.6805223578573</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>12.78161372714459</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>212.3026401727913</v>
+        <v>1109.890589828135</v>
       </c>
       <c r="C2" t="n">
-        <v>134.3800524440326</v>
+        <v>682.9898598414347</v>
       </c>
       <c r="D2" t="n">
-        <v>115.1278356694369</v>
+        <v>486.0615112848029</v>
       </c>
       <c r="E2" t="n">
-        <v>93.19129985769854</v>
+        <v>60.08457143266045</v>
       </c>
       <c r="F2" t="n">
-        <v>72.10752208750284</v>
+        <v>39.00079366246475</v>
       </c>
       <c r="G2" t="n">
-        <v>71.80886371735554</v>
+        <v>38.70213529231744</v>
       </c>
       <c r="H2" t="n">
-        <v>71.80886371735554</v>
+        <v>38.70213529231744</v>
       </c>
       <c r="I2" t="n">
-        <v>36.91199246082674</v>
+        <v>38.70213529231744</v>
       </c>
       <c r="J2" t="n">
-        <v>36.91199246082674</v>
+        <v>42.2045123844041</v>
       </c>
       <c r="K2" t="n">
-        <v>36.91199246082674</v>
+        <v>42.2045123844041</v>
       </c>
       <c r="L2" t="n">
-        <v>36.91199246082674</v>
+        <v>42.2045123844041</v>
       </c>
       <c r="M2" t="n">
-        <v>36.91199246082674</v>
+        <v>42.2045123844041</v>
       </c>
       <c r="N2" t="n">
-        <v>493.6978991635576</v>
+        <v>521.1434366268325</v>
       </c>
       <c r="O2" t="n">
-        <v>950.4838058662885</v>
+        <v>1000.082360869261</v>
       </c>
       <c r="P2" t="n">
-        <v>1407.269712569019</v>
+        <v>1479.021285111689</v>
       </c>
       <c r="Q2" t="n">
-        <v>1728.043288159434</v>
+        <v>1935.106764615872</v>
       </c>
       <c r="R2" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615872</v>
       </c>
       <c r="S2" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615872</v>
       </c>
       <c r="T2" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615872</v>
       </c>
       <c r="U2" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615872</v>
       </c>
       <c r="V2" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615872</v>
       </c>
       <c r="W2" t="n">
-        <v>1449.208273341684</v>
+        <v>1538.715414916219</v>
       </c>
       <c r="X2" t="n">
-        <v>1037.488274509431</v>
+        <v>1531.03582012437</v>
       </c>
       <c r="Y2" t="n">
-        <v>632.1510044643213</v>
+        <v>1529.738954119665</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>604.0354834922822</v>
+        <v>605.8256263237727</v>
       </c>
       <c r="C3" t="n">
-        <v>486.529580009787</v>
+        <v>488.3197228412774</v>
       </c>
       <c r="D3" t="n">
-        <v>382.6896215250719</v>
+        <v>384.4797643565625</v>
       </c>
       <c r="E3" t="n">
-        <v>277.9876877980091</v>
+        <v>279.7778306294997</v>
       </c>
       <c r="F3" t="n">
-        <v>184.3418574809132</v>
+        <v>186.1320003124039</v>
       </c>
       <c r="G3" t="n">
-        <v>90.28808569851708</v>
+        <v>92.07822853000786</v>
       </c>
       <c r="H3" t="n">
-        <v>36.9119924608267</v>
+        <v>38.70213529231744</v>
       </c>
       <c r="I3" t="n">
-        <v>36.91199246082674</v>
+        <v>46.14877825422928</v>
       </c>
       <c r="J3" t="n">
-        <v>36.91199246082674</v>
+        <v>46.14877825422928</v>
       </c>
       <c r="K3" t="n">
-        <v>36.91199246082674</v>
+        <v>525.0877024966576</v>
       </c>
       <c r="L3" t="n">
-        <v>36.91199246082674</v>
+        <v>1004.026626739086</v>
       </c>
       <c r="M3" t="n">
-        <v>393.2225928484409</v>
+        <v>1004.026626739086</v>
       </c>
       <c r="N3" t="n">
-        <v>850.0084995511718</v>
+        <v>1286.431531545696</v>
       </c>
       <c r="O3" t="n">
-        <v>1306.794406253903</v>
+        <v>1765.370455788124</v>
       </c>
       <c r="P3" t="n">
-        <v>1763.580312956634</v>
+        <v>1765.370455788124</v>
       </c>
       <c r="Q3" t="n">
-        <v>1763.580312956634</v>
+        <v>1765.370455788124</v>
       </c>
       <c r="R3" t="n">
-        <v>1845.599623041337</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="S3" t="n">
-        <v>1764.275375602591</v>
+        <v>1766.065518434082</v>
       </c>
       <c r="T3" t="n">
-        <v>1622.39543990027</v>
+        <v>1624.18558273176</v>
       </c>
       <c r="U3" t="n">
-        <v>1437.627243819906</v>
+        <v>1439.417386651397</v>
       </c>
       <c r="V3" t="n">
-        <v>1232.654104959172</v>
+        <v>1234.444247790663</v>
       </c>
       <c r="W3" t="n">
-        <v>1036.13272779239</v>
+        <v>1037.92287062388</v>
       </c>
       <c r="X3" t="n">
-        <v>872.6553815590526</v>
+        <v>874.445524390543</v>
       </c>
       <c r="Y3" t="n">
-        <v>732.9624929123449</v>
+        <v>734.7526357438354</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>646.7231039142208</v>
+        <v>786.7047107178854</v>
       </c>
       <c r="C4" t="n">
-        <v>474.7505407931368</v>
+        <v>614.7321475968014</v>
       </c>
       <c r="D4" t="n">
-        <v>474.7505407931368</v>
+        <v>614.7321475968014</v>
       </c>
       <c r="E4" t="n">
-        <v>308.5423349459903</v>
+        <v>448.523941749655</v>
       </c>
       <c r="F4" t="n">
-        <v>136.6805607205508</v>
+        <v>448.523941749655</v>
       </c>
       <c r="G4" t="n">
-        <v>136.6805607205508</v>
+        <v>282.2669720438871</v>
       </c>
       <c r="H4" t="n">
-        <v>136.6805607205508</v>
+        <v>138.4707035520415</v>
       </c>
       <c r="I4" t="n">
-        <v>36.91199246082674</v>
+        <v>38.70213529231744</v>
       </c>
       <c r="J4" t="n">
-        <v>94.40332068498475</v>
+        <v>96.19346351647546</v>
       </c>
       <c r="K4" t="n">
-        <v>320.9309218908219</v>
+        <v>322.7210647223126</v>
       </c>
       <c r="L4" t="n">
-        <v>675.6202431852428</v>
+        <v>393.4019879271593</v>
       </c>
       <c r="M4" t="n">
-        <v>695.080641322875</v>
+        <v>784.5877828974101</v>
       </c>
       <c r="N4" t="n">
-        <v>1072.572152198911</v>
+        <v>1162.079293773446</v>
       </c>
       <c r="O4" t="n">
-        <v>1428.000280878674</v>
+        <v>1517.507422453209</v>
       </c>
       <c r="P4" t="n">
-        <v>1718.599492800575</v>
+        <v>1808.10663437511</v>
       </c>
       <c r="Q4" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615872</v>
       </c>
       <c r="R4" t="n">
-        <v>1798.56100972851</v>
+        <v>1888.068151303045</v>
       </c>
       <c r="S4" t="n">
-        <v>1628.425962247645</v>
+        <v>1717.93310382218</v>
       </c>
       <c r="T4" t="n">
-        <v>1385.086614473545</v>
+        <v>1474.59375604808</v>
       </c>
       <c r="U4" t="n">
-        <v>1104.902165973849</v>
+        <v>1474.59375604808</v>
       </c>
       <c r="V4" t="n">
-        <v>836.8890726262864</v>
+        <v>1255.611375582338</v>
       </c>
       <c r="W4" t="n">
-        <v>836.8890726262864</v>
+        <v>1255.611375582338</v>
       </c>
       <c r="X4" t="n">
-        <v>836.8890726262864</v>
+        <v>1013.047479028143</v>
       </c>
       <c r="Y4" t="n">
-        <v>836.8890726262864</v>
+        <v>786.7047107178854</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1195.849226997886</v>
+        <v>533.9701437626245</v>
       </c>
       <c r="C5" t="n">
-        <v>1172.98890105159</v>
+        <v>511.1098178163286</v>
       </c>
       <c r="D5" t="n">
-        <v>1153.736684276994</v>
+        <v>491.857601041733</v>
       </c>
       <c r="E5" t="n">
-        <v>727.7597444248519</v>
+        <v>65.88066118959054</v>
       </c>
       <c r="F5" t="n">
-        <v>369.9759006134681</v>
+        <v>44.79688341939484</v>
       </c>
       <c r="G5" t="n">
-        <v>369.6772422433207</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H5" t="n">
-        <v>71.80886371735554</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I5" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K5" t="n">
-        <v>493.6978991635576</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L5" t="n">
-        <v>814.4714747539724</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="M5" t="n">
-        <v>814.4714747539724</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N5" t="n">
-        <v>1271.257381456703</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="O5" t="n">
-        <v>1728.043288159434</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="P5" t="n">
-        <v>1728.043288159434</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q5" t="n">
-        <v>1728.043288159434</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R5" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>1845.599623041337</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T5" t="n">
-        <v>1624.67405208597</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U5" t="n">
-        <v>1624.67405208597</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V5" t="n">
-        <v>1624.67405208597</v>
+        <v>1359.186318550362</v>
       </c>
       <c r="W5" t="n">
-        <v>1624.67405208597</v>
+        <v>962.7949688507089</v>
       </c>
       <c r="X5" t="n">
-        <v>1616.994457294121</v>
+        <v>955.1153740588602</v>
       </c>
       <c r="Y5" t="n">
-        <v>1211.657187249012</v>
+        <v>549.7781040137505</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>604.035483492282</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C6" t="n">
-        <v>486.5295800097867</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D6" t="n">
-        <v>382.6896215250718</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E6" t="n">
-        <v>277.987687798009</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F6" t="n">
-        <v>184.3418574809131</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G6" t="n">
-        <v>90.28808569851715</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H6" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>36.91199246082674</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J6" t="n">
-        <v>36.91199246082674</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="K6" t="n">
-        <v>493.6978991635576</v>
+        <v>602.6104029955975</v>
       </c>
       <c r="L6" t="n">
-        <v>493.6978991635576</v>
+        <v>1153.275937980036</v>
       </c>
       <c r="M6" t="n">
-        <v>950.4838058662885</v>
+        <v>1220.501010560616</v>
       </c>
       <c r="N6" t="n">
-        <v>950.4838058662885</v>
+        <v>1220.501010560616</v>
       </c>
       <c r="O6" t="n">
-        <v>950.4838058662885</v>
+        <v>1220.501010560616</v>
       </c>
       <c r="P6" t="n">
-        <v>1306.794406253902</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="Q6" t="n">
-        <v>1763.580312956633</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R6" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S6" t="n">
-        <v>1764.275375602591</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T6" t="n">
-        <v>1622.395439900269</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U6" t="n">
-        <v>1437.627243819906</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V6" t="n">
-        <v>1232.654104959172</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W6" t="n">
-        <v>1036.132727792389</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X6" t="n">
-        <v>872.6553815590523</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y6" t="n">
-        <v>732.9624929123447</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>612.9420047653107</v>
+        <v>1012.336359290851</v>
       </c>
       <c r="C7" t="n">
-        <v>612.9420047653107</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D7" t="n">
-        <v>612.9420047653107</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E7" t="n">
-        <v>446.7337989181643</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F7" t="n">
-        <v>446.7337989181643</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G7" t="n">
-        <v>280.4768292123964</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H7" t="n">
-        <v>136.6805607205508</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I7" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
-        <v>36.91199246082674</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K7" t="n">
-        <v>263.4395936666639</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L7" t="n">
-        <v>618.1289149610848</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M7" t="n">
-        <v>822.0807715636367</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N7" t="n">
-        <v>1199.572282439673</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O7" t="n">
-        <v>1555.000411119436</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P7" t="n">
-        <v>1845.599623041337</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q7" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>1807.796020657716</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S7" t="n">
-        <v>1637.660973176851</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T7" t="n">
-        <v>1394.321625402751</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U7" t="n">
-        <v>1114.137176903056</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V7" t="n">
-        <v>1114.137176903056</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W7" t="n">
-        <v>839.2847730755686</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="X7" t="n">
-        <v>839.2847730755686</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="Y7" t="n">
-        <v>612.9420047653107</v>
+        <v>1202.502328002917</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1820.815201993657</v>
+        <v>1639.919330369398</v>
       </c>
       <c r="C8" t="n">
-        <v>1393.914472006957</v>
+        <v>1213.018600382698</v>
       </c>
       <c r="D8" t="n">
-        <v>970.6218511919569</v>
+        <v>789.7259795676982</v>
       </c>
       <c r="E8" t="n">
-        <v>544.6449113398145</v>
+        <v>767.7894437559598</v>
       </c>
       <c r="F8" t="n">
-        <v>119.5207295292147</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="G8" t="n">
-        <v>71.80886371735554</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H8" t="n">
-        <v>71.80886371735554</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I8" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K8" t="n">
-        <v>36.91199246082674</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L8" t="n">
-        <v>36.91199246082674</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="M8" t="n">
-        <v>36.91199246082674</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="N8" t="n">
-        <v>493.6978991635576</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="O8" t="n">
-        <v>950.4838058662885</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="P8" t="n">
-        <v>1389.514143537154</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q8" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R8" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T8" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U8" t="n">
-        <v>1845.599623041337</v>
+        <v>2068.744155457482</v>
       </c>
       <c r="V8" t="n">
-        <v>1845.599623041337</v>
+        <v>2068.744155457482</v>
       </c>
       <c r="W8" t="n">
-        <v>1845.599623041337</v>
+        <v>2068.744155457482</v>
       </c>
       <c r="X8" t="n">
-        <v>1837.920028249488</v>
+        <v>2061.064560665634</v>
       </c>
       <c r="Y8" t="n">
-        <v>1836.623162244782</v>
+        <v>2059.767694660928</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>604.0354834922822</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C9" t="n">
-        <v>486.529580009787</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D9" t="n">
-        <v>382.6896215250719</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E9" t="n">
-        <v>277.9876877980091</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F9" t="n">
-        <v>184.3418574809132</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G9" t="n">
-        <v>90.28808569851708</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H9" t="n">
-        <v>36.9119924608267</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>44.35863542273854</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J9" t="n">
-        <v>44.35863542273854</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="K9" t="n">
-        <v>44.35863542273854</v>
+        <v>201.1892506764427</v>
       </c>
       <c r="L9" t="n">
-        <v>475.2419029331441</v>
+        <v>751.8547856608809</v>
       </c>
       <c r="M9" t="n">
-        <v>932.027809635875</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="N9" t="n">
-        <v>1388.813716338606</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="O9" t="n">
-        <v>1388.813716338606</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P9" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q9" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R9" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S9" t="n">
-        <v>1764.275375602591</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T9" t="n">
-        <v>1622.39543990027</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U9" t="n">
-        <v>1437.627243819906</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V9" t="n">
-        <v>1232.654104959172</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W9" t="n">
-        <v>1036.13272779239</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X9" t="n">
-        <v>872.6553815590526</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y9" t="n">
-        <v>732.9624929123449</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>810.0886406460716</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="C10" t="n">
-        <v>638.1160775249875</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D10" t="n">
-        <v>474.7993046517582</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E10" t="n">
-        <v>474.7993046517582</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F10" t="n">
-        <v>302.9375304263186</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G10" t="n">
-        <v>136.6805607205508</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H10" t="n">
-        <v>136.6805607205508</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I10" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J10" t="n">
-        <v>94.40332068498475</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K10" t="n">
-        <v>320.9309218908219</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L10" t="n">
-        <v>675.6202431852428</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M10" t="n">
-        <v>695.080641322875</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N10" t="n">
-        <v>1072.572152198911</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O10" t="n">
-        <v>1428.000280878674</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P10" t="n">
-        <v>1718.599492800575</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q10" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>1798.56100972851</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S10" t="n">
-        <v>1766.342302186128</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T10" t="n">
-        <v>1523.002954412028</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="U10" t="n">
-        <v>1242.818505912332</v>
+        <v>1774.591756481815</v>
       </c>
       <c r="V10" t="n">
-        <v>1242.818505912332</v>
+        <v>1699.46585314434</v>
       </c>
       <c r="W10" t="n">
-        <v>1242.818505912332</v>
+        <v>1424.613449316853</v>
       </c>
       <c r="X10" t="n">
-        <v>1000.254609358137</v>
+        <v>1182.049552762658</v>
       </c>
       <c r="Y10" t="n">
-        <v>1000.254609358137</v>
+        <v>955.7067844524004</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2049.085433177258</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C11" t="n">
-        <v>2049.085433177258</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D11" t="n">
-        <v>1625.792812362258</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E11" t="n">
-        <v>1199.815872510116</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F11" t="n">
-        <v>774.6916906995161</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G11" t="n">
-        <v>370.3526282889647</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H11" t="n">
-        <v>72.48424976299954</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I11" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J11" t="n">
-        <v>435.087708579895</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K11" t="n">
-        <v>1150.596016555394</v>
+        <v>651.5495334576516</v>
       </c>
       <c r="L11" t="n">
-        <v>2047.588607372513</v>
+        <v>1581.174581076928</v>
       </c>
       <c r="M11" t="n">
-        <v>2944.581198189632</v>
+        <v>2585.460682495986</v>
       </c>
       <c r="N11" t="n">
-        <v>3168.127008645793</v>
+        <v>3561.711740982687</v>
       </c>
       <c r="O11" t="n">
-        <v>3168.127008645793</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P11" t="n">
-        <v>3168.127008645793</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q11" t="n">
-        <v>3624.212488149977</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R11" t="n">
-        <v>3624.212488149977</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S11" t="n">
-        <v>3624.212488149977</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T11" t="n">
-        <v>3481.169471445779</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U11" t="n">
-        <v>3222.814562042191</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V11" t="n">
-        <v>2865.325147168441</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W11" t="n">
-        <v>2468.933797468788</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X11" t="n">
-        <v>2468.933797468788</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y11" t="n">
-        <v>2468.933797468788</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>639.6077407944548</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C12" t="n">
-        <v>522.1018373119596</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D12" t="n">
-        <v>418.2618788272446</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E12" t="n">
-        <v>313.5599451001818</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F12" t="n">
-        <v>219.9141147830859</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G12" t="n">
-        <v>125.86034300069</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H12" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I12" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J12" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K12" t="n">
-        <v>72.48424976299954</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L12" t="n">
-        <v>909.2830578459057</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M12" t="n">
-        <v>1806.275648663025</v>
+        <v>1748.774177950213</v>
       </c>
       <c r="N12" t="n">
-        <v>1806.275648663025</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O12" t="n">
-        <v>1806.275648663025</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P12" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q12" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R12" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S12" t="n">
-        <v>1799.847632904764</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T12" t="n">
-        <v>1657.967697202442</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U12" t="n">
-        <v>1473.199501122079</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V12" t="n">
-        <v>1268.226362261345</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W12" t="n">
-        <v>1071.704985094562</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X12" t="n">
-        <v>908.2276388612252</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y12" t="n">
-        <v>768.5347502145175</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>343.6019286254902</v>
+        <v>3679.785021471328</v>
       </c>
       <c r="C13" t="n">
-        <v>171.6293655044062</v>
+        <v>3507.812458350244</v>
       </c>
       <c r="D13" t="n">
-        <v>171.6293655044062</v>
+        <v>3344.495685477015</v>
       </c>
       <c r="E13" t="n">
-        <v>171.6293655044062</v>
+        <v>3178.287479629868</v>
       </c>
       <c r="F13" t="n">
-        <v>72.48424976299954</v>
+        <v>3178.287479629868</v>
       </c>
       <c r="G13" t="n">
-        <v>72.48424976299954</v>
+        <v>3178.287479629868</v>
       </c>
       <c r="H13" t="n">
-        <v>72.48424976299954</v>
+        <v>3034.491211138023</v>
       </c>
       <c r="I13" t="n">
-        <v>72.48424976299954</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="J13" t="n">
-        <v>129.9755779871575</v>
+        <v>2992.213971102457</v>
       </c>
       <c r="K13" t="n">
-        <v>356.5031791929947</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L13" t="n">
-        <v>711.1925004874155</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M13" t="n">
-        <v>1102.378295457666</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N13" t="n">
-        <v>1479.869806333702</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O13" t="n">
-        <v>1835.297935013465</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P13" t="n">
-        <v>2125.897146935366</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q13" t="n">
-        <v>2252.897277176128</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R13" t="n">
-        <v>2252.897277176128</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="S13" t="n">
-        <v>2082.762229695263</v>
+        <v>4897.962009497735</v>
       </c>
       <c r="T13" t="n">
-        <v>1839.422881921163</v>
+        <v>4654.622661723635</v>
       </c>
       <c r="U13" t="n">
-        <v>1559.238433421467</v>
+        <v>4374.43821322394</v>
       </c>
       <c r="V13" t="n">
-        <v>1277.526966029496</v>
+        <v>4092.726745831969</v>
       </c>
       <c r="W13" t="n">
-        <v>1002.674562202009</v>
+        <v>4092.726745831969</v>
       </c>
       <c r="X13" t="n">
-        <v>760.1106656478138</v>
+        <v>3850.162849277774</v>
       </c>
       <c r="Y13" t="n">
-        <v>533.7678973375558</v>
+        <v>3679.785021471328</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1786.113925907822</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C14" t="n">
-        <v>1786.113925907822</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D14" t="n">
-        <v>1362.821305092822</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E14" t="n">
-        <v>936.8443652406795</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F14" t="n">
-        <v>511.7201834300797</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G14" t="n">
-        <v>107.3811210195283</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H14" t="n">
-        <v>107.3811210195283</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I14" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J14" t="n">
-        <v>435.087708579895</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K14" t="n">
-        <v>1150.596016555394</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="L14" t="n">
-        <v>1150.596016555394</v>
+        <v>1394.531219842001</v>
       </c>
       <c r="M14" t="n">
-        <v>1882.075247182045</v>
+        <v>2398.817321261059</v>
       </c>
       <c r="N14" t="n">
-        <v>2779.067837999165</v>
+        <v>3375.06837974776</v>
       </c>
       <c r="O14" t="n">
-        <v>3624.212488149977</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P14" t="n">
-        <v>3624.212488149977</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q14" t="n">
-        <v>3624.212488149977</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R14" t="n">
-        <v>3624.212488149977</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S14" t="n">
-        <v>3624.212488149977</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T14" t="n">
-        <v>3624.212488149977</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U14" t="n">
-        <v>3624.212488149977</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V14" t="n">
-        <v>3419.410908776367</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W14" t="n">
-        <v>3023.019559076714</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X14" t="n">
-        <v>2611.299560244461</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y14" t="n">
-        <v>2205.962290199352</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>639.6077407944548</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C15" t="n">
-        <v>522.1018373119596</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D15" t="n">
-        <v>418.2618788272446</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E15" t="n">
-        <v>313.5599451001818</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F15" t="n">
-        <v>219.9141147830859</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G15" t="n">
-        <v>125.86034300069</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H15" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I15" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J15" t="n">
-        <v>344.1817390425906</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K15" t="n">
-        <v>344.1817390425906</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L15" t="n">
-        <v>909.6712922473346</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M15" t="n">
-        <v>909.6712922473346</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N15" t="n">
-        <v>909.6712922473346</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O15" t="n">
-        <v>1799.152570258806</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P15" t="n">
-        <v>1799.152570258806</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q15" t="n">
-        <v>1799.152570258806</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R15" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S15" t="n">
-        <v>1799.847632904764</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T15" t="n">
-        <v>1657.967697202442</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U15" t="n">
-        <v>1473.199501122079</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V15" t="n">
-        <v>1268.226362261345</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W15" t="n">
-        <v>1071.704985094562</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X15" t="n">
-        <v>908.2276388612252</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y15" t="n">
-        <v>768.5347502145175</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>912.1005355356667</v>
+        <v>747.4857348434895</v>
       </c>
       <c r="C16" t="n">
-        <v>740.1279724145827</v>
+        <v>747.4857348434895</v>
       </c>
       <c r="D16" t="n">
-        <v>576.8111995413534</v>
+        <v>584.1689619702602</v>
       </c>
       <c r="E16" t="n">
-        <v>410.6029936942069</v>
+        <v>417.9607561231137</v>
       </c>
       <c r="F16" t="n">
-        <v>238.7412194687674</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="G16" t="n">
-        <v>72.48424976299954</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H16" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I16" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J16" t="n">
-        <v>129.9755779871575</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K16" t="n">
-        <v>356.5031791929947</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L16" t="n">
-        <v>711.1925004874155</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M16" t="n">
-        <v>1102.378295457666</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N16" t="n">
-        <v>1479.869806333702</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O16" t="n">
-        <v>1835.297935013465</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P16" t="n">
-        <v>2125.897146935366</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q16" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R16" t="n">
-        <v>2252.897277176128</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S16" t="n">
-        <v>2082.762229695263</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T16" t="n">
-        <v>2082.762229695263</v>
+        <v>1992.33777973203</v>
       </c>
       <c r="U16" t="n">
-        <v>2082.762229695263</v>
+        <v>1712.153331232334</v>
       </c>
       <c r="V16" t="n">
-        <v>1846.025572939672</v>
+        <v>1430.441863840363</v>
       </c>
       <c r="W16" t="n">
-        <v>1571.173169112185</v>
+        <v>1155.589460012876</v>
       </c>
       <c r="X16" t="n">
-        <v>1328.60927255799</v>
+        <v>937.6517035555551</v>
       </c>
       <c r="Y16" t="n">
-        <v>1102.266504247732</v>
+        <v>937.6517035555551</v>
       </c>
     </row>
     <row r="17">
@@ -5516,25 +5518,25 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K17" t="n">
-        <v>1180.414480198223</v>
+        <v>533.9931985757493</v>
       </c>
       <c r="L17" t="n">
-        <v>2110.0395278175</v>
+        <v>1463.618246195026</v>
       </c>
       <c r="M17" t="n">
-        <v>3114.325629236558</v>
+        <v>2467.904347614084</v>
       </c>
       <c r="N17" t="n">
-        <v>4090.576687723259</v>
+        <v>3444.155406100785</v>
       </c>
       <c r="O17" t="n">
-        <v>4935.721337874071</v>
+        <v>4289.300056251597</v>
       </c>
       <c r="P17" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q17" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R17" t="n">
         <v>5115.135670291427</v>
@@ -5595,22 +5597,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K18" t="n">
-        <v>692.7876399741681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L18" t="n">
-        <v>692.7876399741681</v>
+        <v>730.647150085061</v>
       </c>
       <c r="M18" t="n">
-        <v>1748.774177950213</v>
+        <v>730.647150085061</v>
       </c>
       <c r="N18" t="n">
-        <v>1910.990343986338</v>
+        <v>730.647150085061</v>
       </c>
       <c r="O18" t="n">
-        <v>1910.990343986338</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P18" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q18" t="n">
         <v>1910.990343986338</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>769.9464360574118</v>
+        <v>1098.592292076367</v>
       </c>
       <c r="C19" t="n">
-        <v>769.9464360574118</v>
+        <v>926.6197289552831</v>
       </c>
       <c r="D19" t="n">
-        <v>606.6296631841825</v>
+        <v>763.3029560820538</v>
       </c>
       <c r="E19" t="n">
-        <v>440.421457337036</v>
+        <v>597.0947502349073</v>
       </c>
       <c r="F19" t="n">
-        <v>268.5596831115964</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G19" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H19" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
@@ -5695,28 +5697,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2075.601420641019</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T19" t="n">
-        <v>2075.601420641019</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U19" t="n">
-        <v>1795.416972141323</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="V19" t="n">
-        <v>1513.705504749352</v>
+        <v>1757.664925652886</v>
       </c>
       <c r="W19" t="n">
-        <v>1238.853100921865</v>
+        <v>1757.664925652886</v>
       </c>
       <c r="X19" t="n">
-        <v>996.2892043676698</v>
+        <v>1515.101029098691</v>
       </c>
       <c r="Y19" t="n">
-        <v>769.9464360574118</v>
+        <v>1288.758260788433</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D20" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E20" t="n">
         <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H20" t="n">
         <v>137.1995846623573</v>
@@ -5753,13 +5755,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K20" t="n">
-        <v>102.3027134058285</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L20" t="n">
-        <v>1007.532766690843</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M20" t="n">
-        <v>2011.818868109901</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N20" t="n">
         <v>2988.069926596602</v>
@@ -5786,16 +5788,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="21">
@@ -5844,10 +5846,10 @@
         <v>1158.289251381874</v>
       </c>
       <c r="O21" t="n">
-        <v>1158.289251381874</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P21" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q21" t="n">
         <v>1910.990343986338</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1012.462104613637</v>
+        <v>888.2776948471626</v>
       </c>
       <c r="C22" t="n">
-        <v>840.4895414925531</v>
+        <v>716.3051317260786</v>
       </c>
       <c r="D22" t="n">
-        <v>677.1727686193238</v>
+        <v>716.3051317260786</v>
       </c>
       <c r="E22" t="n">
-        <v>510.9645627721774</v>
+        <v>550.0969258789321</v>
       </c>
       <c r="F22" t="n">
-        <v>510.9645627721774</v>
+        <v>378.2351516534925</v>
       </c>
       <c r="G22" t="n">
-        <v>344.7075930664095</v>
+        <v>211.9781819477246</v>
       </c>
       <c r="H22" t="n">
-        <v>200.9113245745639</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I22" t="n">
         <v>102.3027134058285</v>
@@ -5911,49 +5913,49 @@
         <v>159.7940416299866</v>
       </c>
       <c r="K22" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358269</v>
       </c>
       <c r="L22" t="n">
-        <v>741.0109641302445</v>
+        <v>741.0109641302477</v>
       </c>
       <c r="M22" t="n">
-        <v>1132.196759100495</v>
+        <v>1132.196759100498</v>
       </c>
       <c r="N22" t="n">
-        <v>1509.688269976531</v>
+        <v>1509.688269976534</v>
       </c>
       <c r="O22" t="n">
-        <v>1865.116398656294</v>
+        <v>1865.116398656297</v>
       </c>
       <c r="P22" t="n">
-        <v>2155.715610578195</v>
+        <v>2155.715610578198</v>
       </c>
       <c r="Q22" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.71574081896</v>
       </c>
       <c r="R22" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.677127506133</v>
       </c>
       <c r="S22" t="n">
-        <v>2282.715740818957</v>
+        <v>2065.542080025268</v>
       </c>
       <c r="T22" t="n">
-        <v>2039.376393044857</v>
+        <v>1822.202732251168</v>
       </c>
       <c r="U22" t="n">
-        <v>1759.191944545161</v>
+        <v>1822.202732251168</v>
       </c>
       <c r="V22" t="n">
-        <v>1477.48047715319</v>
+        <v>1822.202732251168</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.628073325703</v>
+        <v>1547.350328423681</v>
       </c>
       <c r="X22" t="n">
-        <v>1202.628073325703</v>
+        <v>1304.786431869486</v>
       </c>
       <c r="Y22" t="n">
-        <v>1202.628073325703</v>
+        <v>1078.443663559228</v>
       </c>
     </row>
     <row r="23">
@@ -5987,25 +5989,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K23" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L23" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M23" t="n">
-        <v>3114.325629236558</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N23" t="n">
-        <v>4090.576687723259</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O23" t="n">
-        <v>4935.721337874071</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P23" t="n">
-        <v>4997.579335409525</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="Q23" t="n">
         <v>4997.579335409525</v>
@@ -6075,7 +6077,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M24" t="n">
-        <v>1158.289251381874</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N24" t="n">
         <v>1910.990343986338</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>850.3052888313966</v>
+        <v>3608.081958945198</v>
       </c>
       <c r="C25" t="n">
-        <v>678.3327257103126</v>
+        <v>3436.109395824114</v>
       </c>
       <c r="D25" t="n">
-        <v>678.3327257103126</v>
+        <v>3272.792622950885</v>
       </c>
       <c r="E25" t="n">
-        <v>512.1245198631661</v>
+        <v>3106.584417103738</v>
       </c>
       <c r="F25" t="n">
-        <v>512.1245198631661</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="G25" t="n">
-        <v>345.8675501573982</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="H25" t="n">
-        <v>202.0712816655526</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="I25" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="J25" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102457</v>
       </c>
       <c r="K25" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L25" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M25" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N25" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O25" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P25" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q25" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R25" t="n">
-        <v>2282.715740818957</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="S25" t="n">
-        <v>2112.580693338092</v>
+        <v>4897.962009497735</v>
       </c>
       <c r="T25" t="n">
-        <v>1869.241345563992</v>
+        <v>4654.622661723635</v>
       </c>
       <c r="U25" t="n">
-        <v>1589.056897064296</v>
+        <v>4374.43821322394</v>
       </c>
       <c r="V25" t="n">
-        <v>1307.345429672325</v>
+        <v>4299.443099795008</v>
       </c>
       <c r="W25" t="n">
-        <v>1032.493025844838</v>
+        <v>4024.590695967522</v>
       </c>
       <c r="X25" t="n">
-        <v>850.3052888313966</v>
+        <v>4024.590695967522</v>
       </c>
       <c r="Y25" t="n">
-        <v>850.3052888313966</v>
+        <v>3798.247927657264</v>
       </c>
     </row>
     <row r="26">
@@ -6242,7 +6244,7 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P26" t="n">
-        <v>5115.135670291427</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q26" t="n">
         <v>5115.135670291427</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>563.5863609803849</v>
+        <v>3592.307024914129</v>
       </c>
       <c r="C28" t="n">
-        <v>563.5863609803849</v>
+        <v>3420.334461793045</v>
       </c>
       <c r="D28" t="n">
-        <v>563.5863609803849</v>
+        <v>3366.956386690937</v>
       </c>
       <c r="E28" t="n">
-        <v>412.355951603442</v>
+        <v>3200.748180843791</v>
       </c>
       <c r="F28" t="n">
-        <v>412.355951603442</v>
+        <v>3200.748180843791</v>
       </c>
       <c r="G28" t="n">
-        <v>246.0989818976742</v>
+        <v>3034.491211138023</v>
       </c>
       <c r="H28" t="n">
-        <v>102.3027134058285</v>
+        <v>3034.491211138023</v>
       </c>
       <c r="I28" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="J28" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102457</v>
       </c>
       <c r="K28" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L28" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M28" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N28" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O28" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P28" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q28" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R28" t="n">
-        <v>2282.715740818957</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="S28" t="n">
-        <v>2112.580693338092</v>
+        <v>4897.962009497735</v>
       </c>
       <c r="T28" t="n">
-        <v>1869.241345563992</v>
+        <v>4897.962009497735</v>
       </c>
       <c r="U28" t="n">
-        <v>1589.056897064296</v>
+        <v>4617.77756099804</v>
       </c>
       <c r="V28" t="n">
-        <v>1307.345429672325</v>
+        <v>4336.066093606069</v>
       </c>
       <c r="W28" t="n">
-        <v>1032.493025844838</v>
+        <v>4061.213689778582</v>
       </c>
       <c r="X28" t="n">
-        <v>789.9291292906429</v>
+        <v>3818.649793224387</v>
       </c>
       <c r="Y28" t="n">
-        <v>563.5863609803849</v>
+        <v>3592.307024914129</v>
       </c>
     </row>
     <row r="29">
@@ -6464,22 +6466,22 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K29" t="n">
-        <v>1180.414480198223</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="L29" t="n">
-        <v>2110.0395278175</v>
+        <v>1394.531219842001</v>
       </c>
       <c r="M29" t="n">
-        <v>3114.325629236558</v>
+        <v>2398.817321261059</v>
       </c>
       <c r="N29" t="n">
-        <v>4090.576687723259</v>
+        <v>3375.06837974776</v>
       </c>
       <c r="O29" t="n">
-        <v>4659.050190787244</v>
+        <v>4220.213029898572</v>
       </c>
       <c r="P29" t="n">
-        <v>4659.050190787244</v>
+        <v>4928.4923090565</v>
       </c>
       <c r="Q29" t="n">
         <v>5115.135670291427</v>
@@ -6537,22 +6539,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I30" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J30" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K30" t="n">
-        <v>184.7102578919605</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L30" t="n">
-        <v>1021.509065974867</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M30" t="n">
-        <v>1021.509065974867</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N30" t="n">
-        <v>1021.509065974867</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O30" t="n">
         <v>1910.990343986338</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>373.4203922683193</v>
+        <v>3158.801708427964</v>
       </c>
       <c r="C31" t="n">
-        <v>201.4478291472353</v>
+        <v>2986.82914530688</v>
       </c>
       <c r="D31" t="n">
-        <v>201.4478291472353</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="E31" t="n">
-        <v>201.4478291472353</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="F31" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="G31" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="H31" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="I31" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="J31" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102457</v>
       </c>
       <c r="K31" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L31" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M31" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N31" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O31" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P31" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q31" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R31" t="n">
-        <v>2282.715740818957</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="S31" t="n">
-        <v>2112.580693338092</v>
+        <v>4897.962009497735</v>
       </c>
       <c r="T31" t="n">
-        <v>1869.241345563992</v>
+        <v>4654.622661723635</v>
       </c>
       <c r="U31" t="n">
-        <v>1589.056897064296</v>
+        <v>4374.43821322394</v>
       </c>
       <c r="V31" t="n">
-        <v>1307.345429672325</v>
+        <v>4092.726745831969</v>
       </c>
       <c r="W31" t="n">
-        <v>1032.493025844838</v>
+        <v>3817.874342004482</v>
       </c>
       <c r="X31" t="n">
-        <v>789.9291292906429</v>
+        <v>3575.310445450287</v>
       </c>
       <c r="Y31" t="n">
-        <v>563.5863609803849</v>
+        <v>3348.967677140029</v>
       </c>
     </row>
     <row r="32">
@@ -6713,13 +6715,13 @@
         <v>3727.973228906364</v>
       </c>
       <c r="O32" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P32" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q32" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R32" t="n">
         <v>5115.135670291427</v>
@@ -6783,19 +6785,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L33" t="n">
-        <v>939.1015214887346</v>
+        <v>557.3635891120873</v>
       </c>
       <c r="M33" t="n">
-        <v>1910.990343986338</v>
+        <v>557.3635891120873</v>
       </c>
       <c r="N33" t="n">
-        <v>1910.990343986338</v>
+        <v>557.3635891120873</v>
       </c>
       <c r="O33" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P33" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q33" t="n">
         <v>1910.990343986338</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>896.9441885421152</v>
+        <v>3158.801708427964</v>
       </c>
       <c r="C34" t="n">
-        <v>724.9716254210311</v>
+        <v>3158.801708427964</v>
       </c>
       <c r="D34" t="n">
-        <v>561.6548525478019</v>
+        <v>2995.484935554734</v>
       </c>
       <c r="E34" t="n">
-        <v>395.4466467006554</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="F34" t="n">
-        <v>223.5848724752158</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="G34" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="H34" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="I34" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="J34" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102457</v>
       </c>
       <c r="K34" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L34" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M34" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N34" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O34" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P34" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q34" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R34" t="n">
-        <v>2282.715740818957</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="S34" t="n">
-        <v>2112.580693338092</v>
+        <v>4897.962009497735</v>
       </c>
       <c r="T34" t="n">
-        <v>2112.580693338092</v>
+        <v>4654.622661723635</v>
       </c>
       <c r="U34" t="n">
-        <v>2112.580693338092</v>
+        <v>4374.43821322394</v>
       </c>
       <c r="V34" t="n">
-        <v>1830.869225946121</v>
+        <v>4092.726745831969</v>
       </c>
       <c r="W34" t="n">
-        <v>1556.016822118634</v>
+        <v>3817.874342004482</v>
       </c>
       <c r="X34" t="n">
-        <v>1313.452925564439</v>
+        <v>3575.310445450287</v>
       </c>
       <c r="Y34" t="n">
-        <v>1087.110157254181</v>
+        <v>3348.967677140029</v>
       </c>
     </row>
     <row r="35">
@@ -6917,19 +6919,19 @@
         <v>2113.800768076616</v>
       </c>
       <c r="D35" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E35" t="n">
         <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988738</v>
+        <v>839.407025598874</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883227</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623574</v>
       </c>
       <c r="I35" t="n">
         <v>102.3027134058285</v>
@@ -6938,43 +6940,43 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K35" t="n">
-        <v>102.3027134058285</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L35" t="n">
-        <v>1031.927761025105</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M35" t="n">
-        <v>2036.213862444163</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N35" t="n">
-        <v>3012.464920930865</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O35" t="n">
-        <v>3857.609571081677</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P35" t="n">
-        <v>4565.888850239604</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q35" t="n">
-        <v>5021.974329743787</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U35" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V35" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W35" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X35" t="n">
         <v>3365.887132399956</v>
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3873.571530742372</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C36" t="n">
-        <v>3756.065627259877</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D36" t="n">
-        <v>3652.225668775162</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E36" t="n">
-        <v>3547.5237350481</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F36" t="n">
-        <v>3453.877904731004</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G36" t="n">
-        <v>3359.824132948608</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H36" t="n">
-        <v>3306.448039710918</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>3306.448039710918</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J36" t="n">
-        <v>3306.448039710918</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K36" t="n">
-        <v>3306.448039710918</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="L36" t="n">
-        <v>3306.448039710918</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="M36" t="n">
-        <v>3306.448039710918</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="N36" t="n">
-        <v>4225.654392279955</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O36" t="n">
-        <v>5115.135670291426</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P36" t="n">
-        <v>5115.135670291426</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q36" t="n">
-        <v>5115.135670291426</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R36" t="n">
-        <v>5115.135670291426</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S36" t="n">
-        <v>5033.811422852681</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T36" t="n">
-        <v>4891.931487150359</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U36" t="n">
-        <v>4707.163291069996</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V36" t="n">
-        <v>4502.190152209263</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W36" t="n">
-        <v>4305.66877504248</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X36" t="n">
-        <v>4142.191428809143</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y36" t="n">
-        <v>4002.498540162435</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="37">
@@ -7069,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>543.5554397491844</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C37" t="n">
-        <v>371.5828766281004</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D37" t="n">
-        <v>371.5828766281004</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="E37" t="n">
-        <v>371.5828766281004</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F37" t="n">
-        <v>199.7211024026608</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G37" t="n">
         <v>102.3027134058285</v>
@@ -7093,10 +7095,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L37" t="n">
         <v>741.0109641302445</v>
@@ -7120,25 +7122,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>2282.715740818957</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T37" t="n">
-        <v>2039.376393044857</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U37" t="n">
-        <v>1759.191944545161</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V37" t="n">
-        <v>1477.48047715319</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.628073325703</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X37" t="n">
-        <v>960.064176771508</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y37" t="n">
-        <v>733.72140846125</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D38" t="n">
         <v>1690.508147261616</v>
@@ -7160,49 +7162,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K38" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M38" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N38" t="n">
-        <v>3727.973228906364</v>
+        <v>3444.155406100785</v>
       </c>
       <c r="O38" t="n">
-        <v>4573.117879057176</v>
+        <v>4289.300056251597</v>
       </c>
       <c r="P38" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q38" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
@@ -7214,7 +7216,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X38" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y38" t="n">
         <v>2960.549862354846</v>
@@ -7257,22 +7259,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L39" t="n">
-        <v>939.1015214887346</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M39" t="n">
-        <v>939.1015214887346</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="N39" t="n">
-        <v>939.4897558901635</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="O39" t="n">
-        <v>1828.971033901635</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P39" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q39" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R39" t="n">
         <v>1910.990343986338</v>
@@ -7306,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>446.1370507523521</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C40" t="n">
-        <v>274.1644876312681</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D40" t="n">
-        <v>274.1644876312681</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E40" t="n">
-        <v>274.1644876312681</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F40" t="n">
-        <v>102.3027134058285</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G40" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H40" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L40" t="n">
         <v>741.0109641302445</v>
@@ -7357,25 +7359,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>2185.297351822124</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T40" t="n">
-        <v>1941.958004048024</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U40" t="n">
-        <v>1661.773555548329</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="V40" t="n">
-        <v>1380.062088156358</v>
+        <v>2119.408873334071</v>
       </c>
       <c r="W40" t="n">
-        <v>1105.20968432887</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X40" t="n">
-        <v>862.6457877746757</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y40" t="n">
-        <v>636.3030194644177</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1326.092872840693</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C41" t="n">
-        <v>1326.092872840693</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D41" t="n">
-        <v>902.8002520256933</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E41" t="n">
-        <v>476.8233121735509</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F41" t="n">
-        <v>476.8233121735509</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G41" t="n">
-        <v>72.48424976299951</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H41" t="n">
-        <v>72.48424976299951</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I41" t="n">
-        <v>72.48424976299951</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>72.48424976299951</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K41" t="n">
-        <v>72.48424976299951</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L41" t="n">
-        <v>969.4768405801184</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M41" t="n">
-        <v>1866.469431397237</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N41" t="n">
-        <v>2763.462022214356</v>
+        <v>3561.711740982687</v>
       </c>
       <c r="O41" t="n">
-        <v>3608.606672365168</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P41" t="n">
-        <v>3608.606672365168</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q41" t="n">
-        <v>3608.606672365168</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R41" t="n">
-        <v>3624.212488149975</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S41" t="n">
-        <v>3624.212488149975</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T41" t="n">
-        <v>3403.286917194609</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U41" t="n">
-        <v>3144.932007791021</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V41" t="n">
-        <v>2959.389855709239</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W41" t="n">
-        <v>2562.998506009586</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X41" t="n">
-        <v>2151.278507177333</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y41" t="n">
-        <v>1745.941237132223</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>639.6077407944548</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C42" t="n">
-        <v>522.1018373119596</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D42" t="n">
-        <v>418.2618788272446</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E42" t="n">
-        <v>313.5599451001818</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F42" t="n">
-        <v>219.9141147830859</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G42" t="n">
-        <v>125.8603430006899</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H42" t="n">
-        <v>72.48424976299951</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I42" t="n">
-        <v>72.48424976299951</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J42" t="n">
-        <v>72.48424976299951</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K42" t="n">
-        <v>662.9691763313391</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="L42" t="n">
-        <v>1499.767984414245</v>
+        <v>1218.245653730238</v>
       </c>
       <c r="M42" t="n">
-        <v>1499.767984414245</v>
+        <v>1218.245653730238</v>
       </c>
       <c r="N42" t="n">
-        <v>1881.171880343509</v>
+        <v>1218.245653730238</v>
       </c>
       <c r="O42" t="n">
-        <v>1881.171880343509</v>
+        <v>1218.245653730238</v>
       </c>
       <c r="P42" t="n">
-        <v>1881.171880343509</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q42" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R42" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S42" t="n">
-        <v>1799.847632904764</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T42" t="n">
-        <v>1657.967697202442</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U42" t="n">
-        <v>1473.199501122079</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V42" t="n">
-        <v>1268.226362261345</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W42" t="n">
-        <v>1071.704985094562</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X42" t="n">
-        <v>908.2276388612252</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y42" t="n">
-        <v>768.5347502145175</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.7369761063553</v>
+        <v>3918.135197142815</v>
       </c>
       <c r="C43" t="n">
-        <v>410.5542298355855</v>
+        <v>3746.162634021731</v>
       </c>
       <c r="D43" t="n">
-        <v>410.5542298355855</v>
+        <v>3582.845861148502</v>
       </c>
       <c r="E43" t="n">
-        <v>244.3460239884391</v>
+        <v>3416.637655301356</v>
       </c>
       <c r="F43" t="n">
-        <v>72.48424976299951</v>
+        <v>3244.775881075916</v>
       </c>
       <c r="G43" t="n">
-        <v>72.48424976299951</v>
+        <v>3078.518911370148</v>
       </c>
       <c r="H43" t="n">
-        <v>72.48424976299951</v>
+        <v>2934.722642878302</v>
       </c>
       <c r="I43" t="n">
-        <v>72.48424976299951</v>
+        <v>2934.722642878302</v>
       </c>
       <c r="J43" t="n">
-        <v>129.9755779871575</v>
+        <v>2992.213971102461</v>
       </c>
       <c r="K43" t="n">
-        <v>356.5031791929947</v>
+        <v>3218.741572308298</v>
       </c>
       <c r="L43" t="n">
-        <v>711.1925004874155</v>
+        <v>3573.430893602719</v>
       </c>
       <c r="M43" t="n">
-        <v>1102.378295457666</v>
+        <v>3964.616688572969</v>
       </c>
       <c r="N43" t="n">
-        <v>1479.869806333702</v>
+        <v>4342.108199449005</v>
       </c>
       <c r="O43" t="n">
-        <v>1835.297935013465</v>
+        <v>4697.536328128768</v>
       </c>
       <c r="P43" t="n">
-        <v>2125.897146935366</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q43" t="n">
-        <v>2252.897277176128</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R43" t="n">
-        <v>2252.897277176128</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S43" t="n">
-        <v>2252.897277176128</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="T43" t="n">
-        <v>2009.557929402028</v>
+        <v>4871.796322517327</v>
       </c>
       <c r="U43" t="n">
-        <v>1729.373480902332</v>
+        <v>4871.796322517327</v>
       </c>
       <c r="V43" t="n">
-        <v>1447.662013510361</v>
+        <v>4661.894265834755</v>
       </c>
       <c r="W43" t="n">
-        <v>1172.809609682874</v>
+        <v>4387.041862007268</v>
       </c>
       <c r="X43" t="n">
-        <v>930.2457131286789</v>
+        <v>4144.477965453073</v>
       </c>
       <c r="Y43" t="n">
-        <v>703.9029448184209</v>
+        <v>3918.135197142815</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1990.91550528143</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C44" t="n">
-        <v>1564.01477529473</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D44" t="n">
-        <v>1140.72215447973</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E44" t="n">
-        <v>714.7452146275876</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F44" t="n">
-        <v>476.8233121735509</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G44" t="n">
-        <v>72.48424976299951</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H44" t="n">
-        <v>72.48424976299951</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I44" t="n">
-        <v>72.48424976299951</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J44" t="n">
-        <v>72.48424976299951</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K44" t="n">
-        <v>787.9925577384986</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L44" t="n">
-        <v>1684.985148555617</v>
+        <v>1031.927761025105</v>
       </c>
       <c r="M44" t="n">
-        <v>2581.977739372736</v>
+        <v>2036.213862444163</v>
       </c>
       <c r="N44" t="n">
-        <v>3478.970330189855</v>
+        <v>3012.464920930865</v>
       </c>
       <c r="O44" t="n">
-        <v>3624.212488149975</v>
+        <v>3857.609571081677</v>
       </c>
       <c r="P44" t="n">
-        <v>3624.212488149975</v>
+        <v>4565.888850239604</v>
       </c>
       <c r="Q44" t="n">
-        <v>3624.212488149975</v>
+        <v>5021.974329743787</v>
       </c>
       <c r="R44" t="n">
-        <v>3624.212488149975</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S44" t="n">
-        <v>3624.212488149975</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T44" t="n">
-        <v>3624.212488149975</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U44" t="n">
-        <v>3624.212488149975</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V44" t="n">
-        <v>3624.212488149975</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W44" t="n">
-        <v>3227.821138450322</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X44" t="n">
-        <v>2816.101139618069</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y44" t="n">
-        <v>2410.76386957296</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>639.6077407944548</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C45" t="n">
-        <v>522.1018373119596</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D45" t="n">
-        <v>418.2618788272446</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E45" t="n">
-        <v>313.5599451001818</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F45" t="n">
-        <v>219.9141147830859</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G45" t="n">
-        <v>125.8603430006899</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H45" t="n">
-        <v>72.48424976299951</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I45" t="n">
-        <v>79.93089272491135</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J45" t="n">
-        <v>351.6283820045024</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K45" t="n">
-        <v>942.113308572842</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="L45" t="n">
-        <v>942.113308572842</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="M45" t="n">
-        <v>942.113308572842</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="N45" t="n">
-        <v>942.113308572842</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="O45" t="n">
-        <v>1799.152570258806</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="P45" t="n">
-        <v>1799.152570258806</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q45" t="n">
-        <v>1799.152570258806</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R45" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S45" t="n">
-        <v>1799.847632904764</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T45" t="n">
-        <v>1657.967697202442</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U45" t="n">
-        <v>1473.199501122079</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V45" t="n">
-        <v>1268.226362261345</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W45" t="n">
-        <v>1071.704985094562</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X45" t="n">
-        <v>908.2276388612252</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y45" t="n">
-        <v>768.5347502145175</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>586.9412763995904</v>
+        <v>786.8947875232845</v>
       </c>
       <c r="C46" t="n">
-        <v>414.9687132785064</v>
+        <v>614.9222244022005</v>
       </c>
       <c r="D46" t="n">
-        <v>251.6519404052771</v>
+        <v>451.6054515289712</v>
       </c>
       <c r="E46" t="n">
-        <v>251.6519404052771</v>
+        <v>451.6054515289712</v>
       </c>
       <c r="F46" t="n">
-        <v>251.6519404052771</v>
+        <v>451.6054515289712</v>
       </c>
       <c r="G46" t="n">
-        <v>85.3949706995092</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H46" t="n">
-        <v>85.3949706995092</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I46" t="n">
-        <v>72.48424976299951</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J46" t="n">
-        <v>129.9755779871575</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K46" t="n">
-        <v>356.5031791929947</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L46" t="n">
-        <v>711.1925004874155</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M46" t="n">
-        <v>1102.378295457666</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N46" t="n">
-        <v>1479.869806333702</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O46" t="n">
-        <v>1835.297935013465</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P46" t="n">
-        <v>2125.897146935366</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q46" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R46" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S46" t="n">
-        <v>2082.762229695263</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T46" t="n">
-        <v>2082.762229695263</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U46" t="n">
-        <v>1802.577781195567</v>
+        <v>2002.531292319261</v>
       </c>
       <c r="V46" t="n">
-        <v>1520.866313803596</v>
+        <v>1720.81982492729</v>
       </c>
       <c r="W46" t="n">
-        <v>1246.013909976109</v>
+        <v>1445.967421099803</v>
       </c>
       <c r="X46" t="n">
-        <v>1003.450013421914</v>
+        <v>1203.403524545608</v>
       </c>
       <c r="Y46" t="n">
-        <v>777.107245111656</v>
+        <v>977.0607562353503</v>
       </c>
     </row>
   </sheetData>
@@ -7976,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.41995948558652</v>
+        <v>32.95771412405789</v>
       </c>
       <c r="K2" t="n">
         <v>35.76460079480934</v>
@@ -7988,19 +7990,19 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>498.6795285947802</v>
+        <v>521.0563139884141</v>
       </c>
       <c r="O2" t="n">
-        <v>498.7908651163583</v>
+        <v>521.1676505099922</v>
       </c>
       <c r="P2" t="n">
-        <v>498.9752675705655</v>
+        <v>521.3520529641994</v>
       </c>
       <c r="Q2" t="n">
-        <v>360.1383873221887</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8052,28 +8054,28 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
-        <v>22.39923383333334</v>
+        <v>506.1759249873014</v>
       </c>
       <c r="L3" t="n">
-        <v>22.51508671422956</v>
+        <v>506.2917778681976</v>
       </c>
       <c r="M3" t="n">
-        <v>383.0064778735544</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
-        <v>482.7429339738759</v>
+        <v>306.6005078161778</v>
       </c>
       <c r="O3" t="n">
-        <v>484.5717954825564</v>
+        <v>506.9485808761902</v>
       </c>
       <c r="P3" t="n">
-        <v>483.1707469651629</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
         <v>22.7470382889785</v>
@@ -8140,10 +8142,10 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L4" t="n">
-        <v>380.1908016072373</v>
+        <v>93.31363181978872</v>
       </c>
       <c r="M4" t="n">
-        <v>42.2324077072759</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N4" t="n">
         <v>402.0534574160406</v>
@@ -8216,19 +8218,19 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
-        <v>497.1645065551435</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
-        <v>362.3257551502136</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M5" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
-        <v>498.6795285947802</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O5" t="n">
-        <v>498.7908651163583</v>
+        <v>571.1449214366446</v>
       </c>
       <c r="P5" t="n">
         <v>37.5753618102313</v>
@@ -8237,7 +8239,7 @@
         <v>36.12467460459804</v>
       </c>
       <c r="R5" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8289,19 +8291,19 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
-        <v>483.7991395936675</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L6" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M6" t="n">
-        <v>484.4966862726622</v>
+        <v>91.00089423008578</v>
       </c>
       <c r="N6" t="n">
         <v>21.34302821354166</v>
@@ -8310,10 +8312,10 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>381.6805385660549</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q6" t="n">
-        <v>484.1469440493127</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R6" t="n">
         <v>106.5207073584907</v>
@@ -8371,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K7" t="n">
         <v>249.7804132464869</v>
@@ -8380,7 +8382,7 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M7" t="n">
-        <v>228.5874162576999</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N7" t="n">
         <v>402.0534574160406</v>
@@ -8392,7 +8394,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q7" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8453,25 +8455,25 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L8" t="n">
-        <v>38.31204243262292</v>
+        <v>572.0660045132436</v>
       </c>
       <c r="M8" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
-        <v>498.6795285947802</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
-        <v>498.7908651163583</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P8" t="n">
-        <v>481.0403493565598</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q8" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R8" t="n">
         <v>35.03264989479647</v>
@@ -8532,22 +8534,22 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
-        <v>22.39923383333334</v>
+        <v>173.1511355154377</v>
       </c>
       <c r="L9" t="n">
-        <v>457.7507104621139</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M9" t="n">
-        <v>484.4966862726622</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N9" t="n">
-        <v>482.7429339738759</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O9" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>483.1707469651629</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q9" t="n">
         <v>22.7470382889785</v>
@@ -8617,7 +8619,7 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M10" t="n">
-        <v>42.2324077072759</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N10" t="n">
         <v>402.0534574160406</v>
@@ -8690,25 +8692,25 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
-        <v>758.5002654165255</v>
+        <v>224.2932485068573</v>
       </c>
       <c r="L11" t="n">
-        <v>944.3651644701171</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>943.4843849369259</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N11" t="n">
-        <v>263.0834717800634</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R11" t="n">
         <v>35.03264989479647</v>
@@ -8769,22 +8771,22 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K12" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L12" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>929.1499025498222</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N12" t="n">
-        <v>21.34302821354166</v>
+        <v>185.1977413813447</v>
       </c>
       <c r="O12" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>97.42360047804539</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q12" t="n">
         <v>22.7470382889785</v>
@@ -8927,28 +8929,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L14" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>776.299172623322</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>943.3327448719402</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
-        <v>891.0724241548241</v>
+        <v>500.1648957193109</v>
       </c>
       <c r="P14" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q14" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,19 +9005,19 @@
         <v>16.17238675</v>
       </c>
       <c r="J15" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K15" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L15" t="n">
-        <v>593.7166556079104</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>21.34302821354166</v>
+        <v>949.8342934347922</v>
       </c>
       <c r="O15" t="n">
         <v>921.6378271075471</v>
@@ -9027,7 +9029,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R15" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9164,7 +9166,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
-        <v>758.5002654165255</v>
+        <v>105.5494758988752</v>
       </c>
       <c r="L17" t="n">
         <v>977.3272420480539</v>
@@ -9179,13 +9181,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>218.8019602116015</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R17" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,25 +9245,25 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K18" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L18" t="n">
-        <v>22.51508671422956</v>
+        <v>657.2064368952725</v>
       </c>
       <c r="M18" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>185.1977413813447</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R18" t="n">
         <v>23.67291939414415</v>
@@ -9401,16 +9403,16 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K20" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L20" t="n">
-        <v>952.6858336296069</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
         <v>1051.861668373228</v>
       </c>
       <c r="N20" t="n">
-        <v>1023.391803124043</v>
+        <v>276.0147300838795</v>
       </c>
       <c r="O20" t="n">
         <v>891.0724241548241</v>
@@ -9492,13 +9494,13 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>23.17188972222222</v>
+        <v>783.4760236661258</v>
       </c>
       <c r="P21" t="n">
-        <v>313.2411601358238</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q21" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R21" t="n">
         <v>23.67291939414415</v>
@@ -9635,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K23" t="n">
         <v>758.5002654165255</v>
@@ -9653,10 +9655,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>100.0581876036193</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>464.8736204150517</v>
       </c>
       <c r="R23" t="n">
         <v>153.7764225027789</v>
@@ -9723,10 +9725,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>1089.749849175</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N24" t="n">
-        <v>781.6471621574452</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
@@ -9890,10 +9892,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>585.0680802286672</v>
+        <v>124.3756766890881</v>
       </c>
       <c r="Q26" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
         <v>35.03264989479647</v>
@@ -10112,7 +10114,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L29" t="n">
         <v>977.3272420480539</v>
@@ -10124,13 +10126,13 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O29" t="n">
-        <v>611.6066190166155</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
-        <v>496.8170781441769</v>
+        <v>224.6533223166459</v>
       </c>
       <c r="R29" t="n">
         <v>35.03264989479647</v>
@@ -10185,25 +10187,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J30" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K30" t="n">
-        <v>98.11731618103045</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L30" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N30" t="n">
-        <v>21.34302821354166</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O30" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
         <v>21.77084120482866</v>
@@ -10361,16 +10363,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O32" t="n">
-        <v>891.0724241548241</v>
+        <v>143.6953511146608</v>
       </c>
       <c r="P32" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10431,22 +10433,22 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L33" t="n">
-        <v>867.7664080100944</v>
+        <v>482.1725369225717</v>
       </c>
       <c r="M33" t="n">
-        <v>1004.802661823039</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P33" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q33" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R33" t="n">
         <v>23.67291939414415</v>
@@ -10586,7 +10588,7 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K35" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
         <v>977.3272420480539</v>
@@ -10595,7 +10597,7 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N35" t="n">
-        <v>1023.391803124043</v>
+        <v>276.0147300838795</v>
       </c>
       <c r="O35" t="n">
         <v>891.0724241548241</v>
@@ -10607,7 +10609,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
-        <v>129.135014084331</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,7 +10664,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J36" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
         <v>22.39923383333334</v>
@@ -10674,19 +10676,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>949.834293434791</v>
+        <v>1022.176719479639</v>
       </c>
       <c r="O36" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
         <v>758.5002654165255</v>
@@ -10832,19 +10834,19 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N38" t="n">
-        <v>1023.391803124043</v>
+        <v>370.4410136063929</v>
       </c>
       <c r="O38" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>585.0680802286663</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R38" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10905,25 +10907,25 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L39" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>23.09678051232798</v>
+        <v>228.1560083209543</v>
       </c>
       <c r="N39" t="n">
-        <v>21.73518417458086</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
         <v>921.6378271075471</v>
       </c>
       <c r="P39" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q39" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R39" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>944.3651644701167</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>943.4843849369256</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N41" t="n">
-        <v>943.3327448719399</v>
+        <v>489.184786214375</v>
       </c>
       <c r="O41" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R41" t="n">
-        <v>50.79610018248027</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11133,13 +11135,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L42" t="n">
         <v>867.7664080100944</v>
@@ -11148,16 +11150,16 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>406.5994887481519</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>21.77084120482866</v>
+        <v>252.679137561719</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
         <v>23.67291939414415</v>
@@ -11297,28 +11299,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K44" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L44" t="n">
-        <v>944.3651644701167</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>943.4843849369256</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N44" t="n">
-        <v>943.3327448719399</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O44" t="n">
-        <v>184.1002098207918</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
-        <v>35.03264989479647</v>
+        <v>129.1350140843319</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,7 +11378,7 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L45" t="n">
         <v>22.51508671422956</v>
@@ -11388,10 +11390,10 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>888.8681136474386</v>
+        <v>761.8854970109148</v>
       </c>
       <c r="P45" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q45" t="n">
         <v>22.7470382889785</v>
@@ -23258,7 +23260,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23276,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>77.10372870865743</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23321,10 +23323,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>71.9894918991926</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23476,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>55.40529109877383</v>
       </c>
     </row>
     <row r="14">
@@ -23495,7 +23497,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23510,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,16 +23545,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>151.1609571451397</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23653,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23665,10 +23667,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>98.77088257712678</v>
@@ -23698,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>44.52506253001681</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>24.37987869590512</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="17">
@@ -23887,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23899,16 +23901,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>86.02262841516141</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,22 +23937,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>9.958747209596169</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24130,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>132.5504745275768</v>
       </c>
       <c r="I22" t="n">
-        <v>1.148357520078775</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24421,16 +24423,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>204.6491904234094</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>59.77239794534617</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24601,13 +24603,13 @@
         <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>108.8393107934104</v>
       </c>
       <c r="E28" t="n">
-        <v>14.82801850550149</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
@@ -24616,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24841,13 +24843,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>110.098167740202</v>
       </c>
       <c r="E31" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>71.9894918991925</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
         <v>164.5944000087102</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25075,19 +25077,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>104.3914540390037</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>44.5250625300168</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
         <v>142.3583058069271</v>
@@ -25120,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25315,16 +25317,16 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>63.52994056050431</v>
       </c>
       <c r="E37" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>68.15019490184622</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
         <v>142.3583058069271</v>
@@ -25360,7 +25362,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25552,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,16 +25599,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>71.9894918991922</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25628,7 +25630,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25637,16 +25639,16 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25685,7 +25687,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>170.2277901640491</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25783,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>68.10191868181103</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25798,10 +25800,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>98.77088257712678</v>
@@ -25840,10 +25842,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>71.09131660230508</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25874,16 +25876,16 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>185.3302565629974</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,16 +25915,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26035,13 +26037,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>59.91387765085291</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>85.9892688499822</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,7 +26073,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
         <v>240.905954296359</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>525676.9458965898</v>
+        <v>526594.8732773756</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>525676.9458965898</v>
+        <v>529566.9207563736</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>525676.9458965898</v>
+        <v>529566.9207563736</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>425372.6621756165</v>
+        <v>534990.2962587664</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>425372.6621756164</v>
+        <v>534990.2962587664</v>
       </c>
     </row>
     <row r="7">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>534990.2962587664</v>
+        <v>534990.2962587667</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>425372.6621756162</v>
+        <v>534990.2962587664</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>425372.6621756163</v>
+        <v>534990.2962587664</v>
       </c>
     </row>
   </sheetData>
@@ -26320,22 +26322,22 @@
         <v>524198.401210047</v>
       </c>
       <c r="E2" t="n">
-        <v>402200.5562107939</v>
+        <v>505827.3628237027</v>
       </c>
       <c r="F2" t="n">
-        <v>402200.5562107938</v>
+        <v>505827.3628237026</v>
       </c>
       <c r="G2" t="n">
-        <v>505827.3628237027</v>
+        <v>505827.3628237025</v>
       </c>
       <c r="H2" t="n">
+        <v>505827.3628237025</v>
+      </c>
+      <c r="I2" t="n">
         <v>505827.3628237026</v>
       </c>
-      <c r="I2" t="n">
-        <v>505827.3628237027</v>
-      </c>
       <c r="J2" t="n">
-        <v>505827.3628237026</v>
+        <v>505827.3628237025</v>
       </c>
       <c r="K2" t="n">
         <v>505827.3628237026</v>
@@ -26344,16 +26346,16 @@
         <v>505827.3628237026</v>
       </c>
       <c r="M2" t="n">
-        <v>505827.3628237025</v>
+        <v>505827.3628237026</v>
       </c>
       <c r="N2" t="n">
         <v>505827.3628237027</v>
       </c>
       <c r="O2" t="n">
-        <v>402200.5562107937</v>
+        <v>505827.3628237026</v>
       </c>
       <c r="P2" t="n">
-        <v>402200.5562107937</v>
+        <v>505827.3628237025</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>154625.7206181205</v>
+        <v>162124.6960695912</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>23406.83367361221</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>132763.6680096019</v>
+        <v>215739.3565566406</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>102159.9200943099</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>120722.5169427569</v>
+        <v>126577.2685802888</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>18646.60035701978</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>110809.3601091333</v>
+        <v>180063.8714551676</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>191810.9398986468</v>
+        <v>187607.66954561</v>
       </c>
       <c r="C4" t="n">
-        <v>191810.9398986468</v>
+        <v>173998.4022791778</v>
       </c>
       <c r="D4" t="n">
-        <v>191810.9398986468</v>
+        <v>173998.4022791779</v>
       </c>
       <c r="E4" t="n">
-        <v>46140.42348557887</v>
+        <v>58064.51385187964</v>
       </c>
       <c r="F4" t="n">
-        <v>46140.42348557887</v>
+        <v>58064.51385187964</v>
       </c>
       <c r="G4" t="n">
-        <v>58064.51385187964</v>
+        <v>58064.51385187961</v>
       </c>
       <c r="H4" t="n">
         <v>58064.51385187964</v>
@@ -26448,16 +26450,16 @@
         <v>58064.51385187964</v>
       </c>
       <c r="M4" t="n">
-        <v>58064.51385187963</v>
+        <v>58064.51385187959</v>
       </c>
       <c r="N4" t="n">
-        <v>58064.51385187963</v>
+        <v>58064.51385187964</v>
       </c>
       <c r="O4" t="n">
-        <v>46140.42348557886</v>
+        <v>58064.5138518796</v>
       </c>
       <c r="P4" t="n">
-        <v>46140.42348557887</v>
+        <v>58064.51385187962</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>61680.71427022832</v>
+        <v>63041.22282216125</v>
       </c>
       <c r="C5" t="n">
-        <v>61680.71427022832</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="D5" t="n">
-        <v>61680.71427022832</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>55088.02981987964</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="F5" t="n">
-        <v>55088.02981987964</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="G5" t="n">
         <v>77750.06218842969</v>
@@ -26500,16 +26502,16 @@
         <v>77750.06218842969</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>55088.02981987962</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="P5" t="n">
-        <v>55088.02981987962</v>
+        <v>77750.06218842969</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>116081.0264230513</v>
+        <v>111424.8127726845</v>
       </c>
       <c r="C6" t="n">
-        <v>270706.7470411716</v>
+        <v>259346.9142198287</v>
       </c>
       <c r="D6" t="n">
-        <v>270706.7470411719</v>
+        <v>282753.747893441</v>
       </c>
       <c r="E6" t="n">
-        <v>168208.4348957335</v>
+        <v>154273.4302267528</v>
       </c>
       <c r="F6" t="n">
-        <v>300972.1029053354</v>
+        <v>370012.7867833933</v>
       </c>
       <c r="G6" t="n">
-        <v>267852.8666890835</v>
+        <v>370012.7867833932</v>
       </c>
       <c r="H6" t="n">
+        <v>370012.7867833931</v>
+      </c>
+      <c r="I6" t="n">
+        <v>370012.7867833933</v>
+      </c>
+      <c r="J6" t="n">
+        <v>243435.5182031044</v>
+      </c>
+      <c r="K6" t="n">
+        <v>351366.1864263734</v>
+      </c>
+      <c r="L6" t="n">
         <v>370012.7867833932</v>
       </c>
-      <c r="I6" t="n">
-        <v>370012.7867833934</v>
-      </c>
-      <c r="J6" t="n">
-        <v>249290.2698406363</v>
-      </c>
-      <c r="K6" t="n">
-        <v>370012.7867833932</v>
-      </c>
-      <c r="L6" t="n">
-        <v>370012.7867833933</v>
-      </c>
       <c r="M6" t="n">
-        <v>259203.4266742599</v>
+        <v>189948.9153282257</v>
       </c>
       <c r="N6" t="n">
         <v>370012.7867833934</v>
       </c>
       <c r="O6" t="n">
-        <v>300972.1029053353</v>
+        <v>370012.7867833934</v>
       </c>
       <c r="P6" t="n">
-        <v>300972.1029053352</v>
+        <v>370012.7867833932</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.776691153968</v>
       </c>
       <c r="C4" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="D4" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>906.0531220374942</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="F4" t="n">
-        <v>906.0531220374942</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26826,10 +26828,10 @@
         <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>906.0531220374938</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="P4" t="n">
-        <v>906.0531220374938</v>
+        <v>1278.783917572857</v>
       </c>
     </row>
   </sheetData>
@@ -27009,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.776691153968</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>72.45112196162609</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>444.6532162771599</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>372.7307955353627</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.776691153968</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>72.45112196162609</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>444.6532162771597</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.776691153968</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>72.45112196162609</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>444.6532162771599</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>372.7307955353627</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27379,13 +27381,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>345.4883608353617</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>224.1006295357842</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27397,7 +27399,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27442,10 +27444,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27546,13 +27548,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27591,19 +27593,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>13.56139030396406</v>
+        <v>62.10179605696689</v>
       </c>
       <c r="W4" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27625,16 +27627,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>66.66693461922381</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,19 +27666,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>74.65813289307471</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>400</v>
@@ -27771,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.2528374898731</v>
+        <v>114.1895583998069</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27819,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>9.14266081991429</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27831,16 +27833,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
         <v>400</v>
       </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>353.0609246327053</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,7 +27909,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>101.1659342747063</v>
       </c>
       <c r="V8" t="n">
         <v>353.914520725013</v>
@@ -28008,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28026,7 +28028,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28056,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>136.5371765390979</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>204.5197084139514</v>
       </c>
       <c r="W10" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -34696,7 +34698,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.537754638471368</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -34708,19 +34710,19 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>461.3999057603342</v>
+        <v>483.776691153968</v>
       </c>
       <c r="O2" t="n">
-        <v>461.3999057603342</v>
+        <v>483.776691153968</v>
       </c>
       <c r="P2" t="n">
-        <v>461.3999057603342</v>
+        <v>483.776691153968</v>
       </c>
       <c r="Q2" t="n">
-        <v>324.0137127175907</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34772,28 +34774,28 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>483.776691153968</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>483.776691153968</v>
       </c>
       <c r="M3" t="n">
-        <v>359.9096973612264</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>461.3999057603342</v>
+        <v>285.2574796026361</v>
       </c>
       <c r="O3" t="n">
-        <v>461.3999057603342</v>
+        <v>483.776691153968</v>
       </c>
       <c r="P3" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34860,10 +34862,10 @@
         <v>228.8157587937749</v>
       </c>
       <c r="L4" t="n">
-        <v>358.2720417115361</v>
+        <v>71.39487192408751</v>
       </c>
       <c r="M4" t="n">
-        <v>19.65696781579008</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N4" t="n">
         <v>381.3045564404402</v>
@@ -34936,19 +34938,19 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
-        <v>324.0137127175907</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O5" t="n">
-        <v>461.3999057603342</v>
+        <v>533.7539620806206</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -34957,7 +34959,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35009,19 +35011,19 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M6" t="n">
-        <v>461.3999057603342</v>
+        <v>67.9041137177578</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -35030,10 +35032,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>359.9096973612262</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q6" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>82.84778796434657</v>
@@ -35091,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K7" t="n">
         <v>228.8157587937749</v>
@@ -35100,7 +35102,7 @@
         <v>358.2720417115361</v>
       </c>
       <c r="M7" t="n">
-        <v>206.0119763662141</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N7" t="n">
         <v>381.3045564404402</v>
@@ -35112,7 +35114,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,25 +35175,25 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>533.7539620806207</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P8" t="n">
-        <v>443.4649875463285</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q8" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>150.7519016821044</v>
       </c>
       <c r="L9" t="n">
-        <v>435.2356237478844</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M9" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N9" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35337,7 +35339,7 @@
         <v>358.2720417115361</v>
       </c>
       <c r="M10" t="n">
-        <v>19.65696781579008</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N10" t="n">
         <v>381.3045564404402</v>
@@ -35410,25 +35412,25 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
-        <v>722.7356646217162</v>
+        <v>188.528647712048</v>
       </c>
       <c r="L11" t="n">
-        <v>906.0531220374942</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>906.0531220374942</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N11" t="n">
-        <v>225.8038489456174</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35489,22 +35491,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L12" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>906.0531220374942</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>163.8547131678031</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>75.65275927321673</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35647,28 +35649,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>738.8679097238902</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>906.0531220374942</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
-        <v>853.6814647988001</v>
+        <v>462.7739363632869</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,19 +35725,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>571.2015688936808</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>928.4912652212506</v>
       </c>
       <c r="O15" t="n">
         <v>898.4659373853249</v>
@@ -35747,7 +35749,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35884,7 +35886,7 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
-        <v>722.7356646217162</v>
+        <v>69.78487510406583</v>
       </c>
       <c r="L17" t="n">
         <v>939.015199615431</v>
@@ -35899,13 +35901,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>181.2265984013702</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>634.6913501810429</v>
       </c>
       <c r="M18" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>163.8547131678031</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36121,16 +36123,16 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L20" t="n">
-        <v>914.373791196984</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
         <v>1014.430405473796</v>
       </c>
       <c r="N20" t="n">
-        <v>986.1121802895968</v>
+        <v>238.7351072494335</v>
       </c>
       <c r="O20" t="n">
         <v>853.6814647988001</v>
@@ -36212,13 +36214,13 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="P21" t="n">
-        <v>291.4703189309951</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,7 +36281,7 @@
         <v>58.07204871127072</v>
       </c>
       <c r="K22" t="n">
-        <v>228.8157587937749</v>
+        <v>228.8157587937781</v>
       </c>
       <c r="L22" t="n">
         <v>358.2720417115361</v>
@@ -36355,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>722.7356646217162</v>
@@ -36373,10 +36375,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>62.48282579338804</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>428.7489458104537</v>
       </c>
       <c r="R23" t="n">
         <v>118.7437726079824</v>
@@ -36443,10 +36445,10 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1066.653068662672</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N24" t="n">
-        <v>760.3041339439036</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36610,10 +36612,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>547.4927184184359</v>
+        <v>86.80031487885682</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36832,7 +36834,7 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>939.015199615431</v>
@@ -36844,13 +36846,13 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O29" t="n">
-        <v>574.2156596605913</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q29" t="n">
-        <v>460.6924035395789</v>
+        <v>188.5286477120479</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36905,25 +36907,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>75.71808234769711</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O30" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37081,16 +37083,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O32" t="n">
-        <v>853.6814647988001</v>
+        <v>106.3043917586367</v>
       </c>
       <c r="P32" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,22 +37153,22 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>845.2513212958648</v>
+        <v>459.6574502083422</v>
       </c>
       <c r="M33" t="n">
-        <v>981.7058813107108</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37306,7 +37308,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L35" t="n">
         <v>939.015199615431</v>
@@ -37315,7 +37317,7 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N35" t="n">
-        <v>986.1121802895968</v>
+        <v>238.7351072494335</v>
       </c>
       <c r="O35" t="n">
         <v>853.6814647988001</v>
@@ -37327,7 +37329,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
-        <v>94.1023641895345</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -37394,19 +37396,19 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>928.4912652212494</v>
+        <v>1000.833691266097</v>
       </c>
       <c r="O36" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37540,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
         <v>722.7356646217162</v>
@@ -37552,19 +37554,19 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N38" t="n">
-        <v>986.1121802895968</v>
+        <v>333.1613907719469</v>
       </c>
       <c r="O38" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>547.4927184184349</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,25 +37627,25 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>205.0592278086264</v>
       </c>
       <c r="N39" t="n">
-        <v>0.3921559610391957</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>898.4659373853249</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>906.0531220374938</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>906.0531220374938</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N41" t="n">
-        <v>906.0531220374938</v>
+        <v>451.905163379929</v>
       </c>
       <c r="O41" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>15.7634502876838</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>845.2513212958648</v>
@@ -37868,16 +37870,16 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>385.2564605346102</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>230.9082963568903</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37953,7 +37955,7 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P43" t="n">
-        <v>293.5345574968697</v>
+        <v>293.5345574968659</v>
       </c>
       <c r="Q43" t="n">
         <v>128.2829598391535</v>
@@ -38017,28 +38019,28 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>906.0531220374938</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>906.0531220374938</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N44" t="n">
-        <v>906.0531220374938</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O44" t="n">
-        <v>146.7092504647677</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>94.10236418953542</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,7 +38098,7 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38108,10 +38110,10 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>865.6962239252164</v>
+        <v>738.7136072886926</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_4_36.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_4_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2397206.560163054</v>
+        <v>2396509.898957963</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>612367.9462114754</v>
+        <v>612367.9462114742</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6167534.139071009</v>
+        <v>6167534.13907101</v>
       </c>
     </row>
     <row r="11">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>415.6498806486147</v>
+        <v>381.8633700782719</v>
       </c>
       <c r="C2" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D2" t="n">
-        <v>194.9590650710655</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E2" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F2" t="n">
         <v>20.87293999249374</v>
@@ -715,10 +715,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
         <v>392.4274362026566</v>
@@ -727,7 +727,7 @@
         <v>7.602798843930202</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="3">
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>175.5024969901391</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>168.4336970060565</v>
@@ -873,13 +873,13 @@
         <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>216.7925566610845</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
         <v>240.1382575886529</v>
@@ -895,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>22.63172268683286</v>
+        <v>72.12684346238382</v>
       </c>
       <c r="D5" t="n">
         <v>19.05969460684969</v>
       </c>
       <c r="E5" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F5" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -946,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>279.2563878319383</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
         <v>401.2838973446586</v>
@@ -1056,7 +1056,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>56.0632790900662</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
         <v>161.683605144497</v>
@@ -1074,7 +1074,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>260.4446813871647</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="8">
@@ -1132,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C8" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D8" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E8" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
         <v>400.2956717864458</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>154.6054260348455</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>7.602798843930202</v>
+        <v>58.88460369318454</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="9">
@@ -1290,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>170.1431564831852</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>47.32556988066135</v>
       </c>
       <c r="V10" t="n">
-        <v>74.37464430409996</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
@@ -1429,7 +1429,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>353.9145207250137</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
         <v>392.4274362026566</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
         <v>170.2528374898731</v>
@@ -1539,16 +1539,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,25 +1578,25 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>77.34040729634128</v>
       </c>
       <c r="V13" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>168.6740495283815</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.3236211855919</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
         <v>218.7163152458132</v>
@@ -1767,22 +1767,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>98.15366458399269</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
         <v>240.905954296359</v>
@@ -1830,10 +1830,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>215.7583788927478</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>34.54790254396433</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2007,22 +2007,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>84.12052806802377</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,19 +2052,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T19" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
         <v>240.1382575886529</v>
@@ -2089,7 +2089,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>421.717170453622</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
         <v>420.8729399924937</v>
@@ -2247,19 +2247,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>9.807831279350324</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T22" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
         <v>272.1038797892121</v>
@@ -2481,13 +2481,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>98.15366458399268</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>168.4336970060565</v>
@@ -2535,13 +2535,13 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>74.24516229464197</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
         <v>224.0793406271554</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>52.8442943510866</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
         <v>277.3826040146988</v>
@@ -2955,13 +2955,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>51.58543740429501</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
@@ -3189,16 +3189,16 @@
         <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>60.1546697496713</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T34" t="n">
         <v>240.905954296359</v>
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>415.6498806486148</v>
+        <v>415.6498806486146</v>
       </c>
       <c r="C35" t="n">
-        <v>422.6317226868329</v>
+        <v>422.6317226868327</v>
       </c>
       <c r="D35" t="n">
-        <v>419.0596946068497</v>
+        <v>419.0596946068496</v>
       </c>
       <c r="E35" t="n">
-        <v>421.7171704536211</v>
+        <v>421.7171704536209</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8729399924938</v>
+        <v>420.8729399924936</v>
       </c>
       <c r="G35" t="n">
-        <v>400.2956717864459</v>
+        <v>400.2956717864457</v>
       </c>
       <c r="H35" t="n">
-        <v>294.8896947407056</v>
+        <v>294.8896947407054</v>
       </c>
       <c r="I35" t="n">
-        <v>34.54790254396359</v>
+        <v>34.5479025439634</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>103.3236211855911</v>
+        <v>103.3236211855909</v>
       </c>
       <c r="T35" t="n">
-        <v>218.7163152458133</v>
+        <v>218.7163152458131</v>
       </c>
       <c r="U35" t="n">
-        <v>255.7713603095519</v>
+        <v>255.7713603095517</v>
       </c>
       <c r="V35" t="n">
-        <v>353.9145207250131</v>
+        <v>353.9145207250129</v>
       </c>
       <c r="W35" t="n">
-        <v>392.4274362026566</v>
+        <v>392.4274362026565</v>
       </c>
       <c r="X35" t="n">
-        <v>407.6027988439303</v>
+        <v>407.6027988439268</v>
       </c>
       <c r="Y35" t="n">
         <v>401.2838973446586</v>
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>188.2643090249449</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>170.252837489873</v>
       </c>
       <c r="D37" t="n">
-        <v>98.15366458399268</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831851</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3474,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686653</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>240.9059542963589</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>277.3826040146986</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>278.8943527180513</v>
       </c>
       <c r="W37" t="n">
-        <v>272.1038797892121</v>
+        <v>272.103879789212</v>
       </c>
       <c r="X37" t="n">
-        <v>240.1382575886529</v>
+        <v>240.1382575886528</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>224.0793406271553</v>
       </c>
     </row>
     <row r="38">
@@ -3502,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.6498806486147</v>
+        <v>415.6498806486146</v>
       </c>
       <c r="C38" t="n">
-        <v>422.6317226868329</v>
+        <v>422.6317226868327</v>
       </c>
       <c r="D38" t="n">
-        <v>419.0596946068497</v>
+        <v>419.0596946068496</v>
       </c>
       <c r="E38" t="n">
-        <v>421.717170453621</v>
+        <v>421.7171704536209</v>
       </c>
       <c r="F38" t="n">
-        <v>420.8729399924937</v>
+        <v>420.8729399924936</v>
       </c>
       <c r="G38" t="n">
-        <v>400.2956717864458</v>
+        <v>400.2956717864457</v>
       </c>
       <c r="H38" t="n">
-        <v>294.8896947407055</v>
+        <v>294.8896947407054</v>
       </c>
       <c r="I38" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396336</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855909</v>
       </c>
       <c r="T38" t="n">
-        <v>218.7163152458132</v>
+        <v>218.716315245813</v>
       </c>
       <c r="U38" t="n">
-        <v>255.7713603095518</v>
+        <v>255.7713603095517</v>
       </c>
       <c r="V38" t="n">
-        <v>353.914520725013</v>
+        <v>353.9145207250129</v>
       </c>
       <c r="W38" t="n">
-        <v>392.4274362026566</v>
+        <v>392.4274362026565</v>
       </c>
       <c r="X38" t="n">
-        <v>407.6027988439302</v>
+        <v>407.6027988439301</v>
       </c>
       <c r="Y38" t="n">
-        <v>401.2838973446586</v>
+        <v>401.2838973446566</v>
       </c>
     </row>
     <row r="39">
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.264309024945</v>
+        <v>188.2643090249449</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>98.2633455906833</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>170.143156483185</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.4336970060563</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.9059542963589</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146986</v>
       </c>
       <c r="V40" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180513</v>
       </c>
       <c r="W40" t="n">
-        <v>272.1038797892121</v>
+        <v>272.103879789212</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>240.1382575886528</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>224.0793406271552</v>
       </c>
     </row>
     <row r="41">
@@ -3739,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>415.6498806486146</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>422.6317226868327</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>419.0596946068496</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>421.7171704536209</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>420.8729399924936</v>
       </c>
       <c r="G41" t="n">
-        <v>400.2956717864458</v>
+        <v>400.2956717864457</v>
       </c>
       <c r="H41" t="n">
-        <v>294.8896947407055</v>
+        <v>294.8896947407054</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396336</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855909</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458132</v>
+        <v>218.716315245813</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095518</v>
+        <v>255.7713603095517</v>
       </c>
       <c r="V41" t="n">
-        <v>353.9145207250137</v>
+        <v>353.9145207250129</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>392.4274362026565</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>407.6027988439301</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>401.2838973446584</v>
       </c>
     </row>
     <row r="42">
@@ -3897,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>188.2643090249449</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>170.252837489873</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>170.143156483185</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>168.4336970060563</v>
       </c>
       <c r="T43" t="n">
-        <v>240.905954296359</v>
+        <v>240.9059542963589</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3826040146986</v>
       </c>
       <c r="V43" t="n">
-        <v>207.8030361157463</v>
+        <v>278.8943527180513</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>200.1143878900281</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>240.1382575886528</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.0793406271554</v>
+        <v>224.0793406271552</v>
       </c>
     </row>
     <row r="44">
@@ -3976,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>415.6498806486146</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>422.6317226868327</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>419.0596946068496</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>421.7171704536209</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>420.8729399924936</v>
       </c>
       <c r="G44" t="n">
-        <v>400.2956717864458</v>
+        <v>400.2956717864457</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>294.8896947407054</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396336</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855901</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458137</v>
+        <v>218.716315245813</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095518</v>
+        <v>255.7713603095517</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>353.9145207250129</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>392.4274362026565</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>407.6027988439301</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>401.2838973446584</v>
       </c>
     </row>
     <row r="45">
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>116.2748171257551</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>170.252837489873</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.143156483185</v>
       </c>
       <c r="G46" t="n">
-        <v>104.6805223578573</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>168.4336970060563</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>240.9059542963589</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>277.3826040146986</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>278.8943527180513</v>
       </c>
       <c r="W46" t="n">
-        <v>272.1038797892121</v>
+        <v>272.103879789212</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>240.1382575886528</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.0793406271554</v>
+        <v>224.0793406271552</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1109.890589828135</v>
+        <v>124.1336499652904</v>
       </c>
       <c r="C2" t="n">
-        <v>682.9898598414347</v>
+        <v>101.2733240189946</v>
       </c>
       <c r="D2" t="n">
-        <v>486.0615112848029</v>
+        <v>82.02110724439898</v>
       </c>
       <c r="E2" t="n">
-        <v>60.08457143266045</v>
+        <v>60.08457143266058</v>
       </c>
       <c r="F2" t="n">
-        <v>39.00079366246475</v>
+        <v>39.00079366246488</v>
       </c>
       <c r="G2" t="n">
-        <v>38.70213529231744</v>
+        <v>38.70213529231757</v>
       </c>
       <c r="H2" t="n">
-        <v>38.70213529231744</v>
+        <v>38.70213529231757</v>
       </c>
       <c r="I2" t="n">
-        <v>38.70213529231744</v>
+        <v>38.70213529231757</v>
       </c>
       <c r="J2" t="n">
-        <v>42.2045123844041</v>
+        <v>401.3055941092131</v>
       </c>
       <c r="K2" t="n">
-        <v>42.2045123844041</v>
+        <v>880.244518351643</v>
       </c>
       <c r="L2" t="n">
-        <v>42.2045123844041</v>
+        <v>1359.183442594073</v>
       </c>
       <c r="M2" t="n">
-        <v>42.2045123844041</v>
+        <v>1359.183442594073</v>
       </c>
       <c r="N2" t="n">
-        <v>521.1434366268325</v>
+        <v>1838.122366836503</v>
       </c>
       <c r="O2" t="n">
-        <v>1000.082360869261</v>
+        <v>1935.106764615879</v>
       </c>
       <c r="P2" t="n">
-        <v>1479.021285111689</v>
+        <v>1935.106764615879</v>
       </c>
       <c r="Q2" t="n">
-        <v>1935.106764615872</v>
+        <v>1935.106764615879</v>
       </c>
       <c r="R2" t="n">
-        <v>1935.106764615872</v>
+        <v>1935.106764615879</v>
       </c>
       <c r="S2" t="n">
-        <v>1935.106764615872</v>
+        <v>1935.106764615879</v>
       </c>
       <c r="T2" t="n">
-        <v>1935.106764615872</v>
+        <v>1935.106764615879</v>
       </c>
       <c r="U2" t="n">
-        <v>1935.106764615872</v>
+        <v>1676.751855212291</v>
       </c>
       <c r="V2" t="n">
-        <v>1935.106764615872</v>
+        <v>1319.26244033854</v>
       </c>
       <c r="W2" t="n">
-        <v>1538.715414916219</v>
+        <v>922.8710906388872</v>
       </c>
       <c r="X2" t="n">
-        <v>1531.03582012437</v>
+        <v>915.1914958470385</v>
       </c>
       <c r="Y2" t="n">
-        <v>1529.738954119665</v>
+        <v>509.8542258019288</v>
       </c>
     </row>
     <row r="3">
@@ -4385,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>605.8256263237727</v>
+        <v>605.8256263237728</v>
       </c>
       <c r="C3" t="n">
-        <v>488.3197228412774</v>
+        <v>488.3197228412776</v>
       </c>
       <c r="D3" t="n">
-        <v>384.4797643565625</v>
+        <v>384.4797643565626</v>
       </c>
       <c r="E3" t="n">
-        <v>279.7778306294997</v>
+        <v>279.7778306294998</v>
       </c>
       <c r="F3" t="n">
-        <v>186.1320003124039</v>
+        <v>186.132000312404</v>
       </c>
       <c r="G3" t="n">
-        <v>92.07822853000786</v>
+        <v>92.07822853000798</v>
       </c>
       <c r="H3" t="n">
-        <v>38.70213529231744</v>
+        <v>38.70213529231757</v>
       </c>
       <c r="I3" t="n">
-        <v>46.14877825422928</v>
+        <v>46.14877825422941</v>
       </c>
       <c r="J3" t="n">
-        <v>46.14877825422928</v>
+        <v>317.8462675338205</v>
       </c>
       <c r="K3" t="n">
-        <v>525.0877024966576</v>
+        <v>796.7851917762505</v>
       </c>
       <c r="L3" t="n">
-        <v>1004.026626739086</v>
+        <v>1275.72411601868</v>
       </c>
       <c r="M3" t="n">
-        <v>1004.026626739086</v>
+        <v>1368.450841630397</v>
       </c>
       <c r="N3" t="n">
-        <v>1286.431531545696</v>
+        <v>1368.450841630397</v>
       </c>
       <c r="O3" t="n">
-        <v>1765.370455788124</v>
+        <v>1368.450841630397</v>
       </c>
       <c r="P3" t="n">
-        <v>1765.370455788124</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="Q3" t="n">
-        <v>1765.370455788124</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="R3" t="n">
         <v>1847.389765872827</v>
@@ -4451,10 +4451,10 @@
         <v>1037.92287062388</v>
       </c>
       <c r="X3" t="n">
-        <v>874.445524390543</v>
+        <v>874.4455243905431</v>
       </c>
       <c r="Y3" t="n">
-        <v>734.7526357438354</v>
+        <v>734.7526357438355</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>786.7047107178854</v>
+        <v>38.70213529231757</v>
       </c>
       <c r="C4" t="n">
-        <v>614.7321475968014</v>
+        <v>38.70213529231757</v>
       </c>
       <c r="D4" t="n">
-        <v>614.7321475968014</v>
+        <v>38.70213529231757</v>
       </c>
       <c r="E4" t="n">
-        <v>448.523941749655</v>
+        <v>38.70213529231757</v>
       </c>
       <c r="F4" t="n">
-        <v>448.523941749655</v>
+        <v>38.70213529231757</v>
       </c>
       <c r="G4" t="n">
-        <v>282.2669720438871</v>
+        <v>38.70213529231757</v>
       </c>
       <c r="H4" t="n">
-        <v>138.4707035520415</v>
+        <v>38.70213529231757</v>
       </c>
       <c r="I4" t="n">
-        <v>38.70213529231744</v>
+        <v>38.70213529231757</v>
       </c>
       <c r="J4" t="n">
-        <v>96.19346351647546</v>
+        <v>96.19346351647559</v>
       </c>
       <c r="K4" t="n">
-        <v>322.7210647223126</v>
+        <v>322.7210647223128</v>
       </c>
       <c r="L4" t="n">
-        <v>393.4019879271593</v>
+        <v>677.4103860167336</v>
       </c>
       <c r="M4" t="n">
-        <v>784.5877828974101</v>
+        <v>1068.596180986984</v>
       </c>
       <c r="N4" t="n">
-        <v>1162.079293773446</v>
+        <v>1446.08769186302</v>
       </c>
       <c r="O4" t="n">
-        <v>1517.507422453209</v>
+        <v>1801.515820542783</v>
       </c>
       <c r="P4" t="n">
-        <v>1808.10663437511</v>
+        <v>1808.106634375117</v>
       </c>
       <c r="Q4" t="n">
-        <v>1935.106764615872</v>
+        <v>1935.106764615879</v>
       </c>
       <c r="R4" t="n">
-        <v>1888.068151303045</v>
+        <v>1935.106764615879</v>
       </c>
       <c r="S4" t="n">
-        <v>1717.93310382218</v>
+        <v>1764.971717135013</v>
       </c>
       <c r="T4" t="n">
-        <v>1474.59375604808</v>
+        <v>1521.632369360913</v>
       </c>
       <c r="U4" t="n">
-        <v>1474.59375604808</v>
+        <v>1241.447920861218</v>
       </c>
       <c r="V4" t="n">
-        <v>1255.611375582338</v>
+        <v>959.7364534692465</v>
       </c>
       <c r="W4" t="n">
-        <v>1255.611375582338</v>
+        <v>684.8840496417595</v>
       </c>
       <c r="X4" t="n">
-        <v>1013.047479028143</v>
+        <v>442.3201530875646</v>
       </c>
       <c r="Y4" t="n">
-        <v>786.7047107178854</v>
+        <v>215.9773847773066</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>533.9701437626245</v>
+        <v>988.0056192934842</v>
       </c>
       <c r="C5" t="n">
-        <v>511.1098178163286</v>
+        <v>915.1502218567329</v>
       </c>
       <c r="D5" t="n">
-        <v>491.857601041733</v>
+        <v>895.8980050821372</v>
       </c>
       <c r="E5" t="n">
-        <v>65.88066118959054</v>
+        <v>873.9614692703988</v>
       </c>
       <c r="F5" t="n">
-        <v>44.79688341939484</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="G5" t="n">
         <v>44.49822504924753</v>
@@ -4567,22 +4567,22 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>595.1637600336857</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L5" t="n">
-        <v>1145.829295018124</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M5" t="n">
-        <v>1145.829295018124</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="N5" t="n">
-        <v>1696.494830002562</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="O5" t="n">
-        <v>2224.911252462377</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="P5" t="n">
         <v>2224.911252462377</v>
@@ -4594,25 +4594,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T5" t="n">
-        <v>1899.61838738015</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U5" t="n">
-        <v>1641.263477976562</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V5" t="n">
-        <v>1359.186318550362</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="W5" t="n">
-        <v>962.7949688507089</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="X5" t="n">
-        <v>955.1153740588602</v>
+        <v>1813.191253630124</v>
       </c>
       <c r="Y5" t="n">
-        <v>549.7781040137505</v>
+        <v>1407.853983585014</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>51.94486801115937</v>
       </c>
       <c r="J6" t="n">
-        <v>51.94486801115937</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K6" t="n">
-        <v>602.6104029955975</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L6" t="n">
-        <v>1153.275937980036</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="M6" t="n">
-        <v>1220.501010560616</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="N6" t="n">
-        <v>1220.501010560616</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="O6" t="n">
-        <v>1220.501010560616</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="P6" t="n">
-        <v>1771.166545545054</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q6" t="n">
         <v>1771.166545545054</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1012.336359290851</v>
+        <v>1027.91077931376</v>
       </c>
       <c r="C7" t="n">
-        <v>955.7067844524004</v>
+        <v>855.9382161926764</v>
       </c>
       <c r="D7" t="n">
-        <v>792.3900115791711</v>
+        <v>692.6214433194471</v>
       </c>
       <c r="E7" t="n">
-        <v>626.1818057320246</v>
+        <v>526.4132374723006</v>
       </c>
       <c r="F7" t="n">
-        <v>454.3200315065851</v>
+        <v>354.551463246861</v>
       </c>
       <c r="G7" t="n">
-        <v>288.0630618008172</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="H7" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I7" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
-        <v>101.9895532734055</v>
+        <v>101.9895532734062</v>
       </c>
       <c r="K7" t="n">
-        <v>328.5171544792427</v>
+        <v>328.5171544792433</v>
       </c>
       <c r="L7" t="n">
-        <v>683.2064757736634</v>
+        <v>683.2064757736641</v>
       </c>
       <c r="M7" t="n">
-        <v>1074.392270743914</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N7" t="n">
-        <v>1451.88378161995</v>
+        <v>1451.883781619951</v>
       </c>
       <c r="O7" t="n">
-        <v>1807.311910299713</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P7" t="n">
-        <v>2097.911122221614</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q7" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R7" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S7" t="n">
-        <v>2007.737591668684</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T7" t="n">
-        <v>1764.398243894584</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U7" t="n">
-        <v>1484.213795394888</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V7" t="n">
-        <v>1202.502328002917</v>
+        <v>1961.835816717766</v>
       </c>
       <c r="W7" t="n">
-        <v>1202.502328002917</v>
+        <v>1686.983412890279</v>
       </c>
       <c r="X7" t="n">
-        <v>1202.502328002917</v>
+        <v>1444.419516336084</v>
       </c>
       <c r="Y7" t="n">
-        <v>1202.502328002917</v>
+        <v>1218.076748025826</v>
       </c>
     </row>
     <row r="8">
@@ -4783,13 +4783,13 @@
         <v>1639.919330369398</v>
       </c>
       <c r="C8" t="n">
-        <v>1213.018600382698</v>
+        <v>1617.059004423102</v>
       </c>
       <c r="D8" t="n">
-        <v>789.7259795676982</v>
+        <v>1597.806787648507</v>
       </c>
       <c r="E8" t="n">
-        <v>767.7894437559598</v>
+        <v>1171.829847796364</v>
       </c>
       <c r="F8" t="n">
         <v>746.7056659857641</v>
@@ -4810,46 +4810,46 @@
         <v>595.1637600336857</v>
       </c>
       <c r="L8" t="n">
-        <v>1123.5801824935</v>
+        <v>1006.023847611597</v>
       </c>
       <c r="M8" t="n">
-        <v>1123.5801824935</v>
+        <v>1556.689382596036</v>
       </c>
       <c r="N8" t="n">
-        <v>1123.5801824935</v>
+        <v>1556.689382596036</v>
       </c>
       <c r="O8" t="n">
-        <v>1674.245717477938</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="P8" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="Q8" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R8" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T8" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U8" t="n">
-        <v>2068.744155457482</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="V8" t="n">
-        <v>2068.744155457482</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="W8" t="n">
-        <v>2068.744155457482</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="X8" t="n">
         <v>2061.064560665634</v>
       </c>
       <c r="Y8" t="n">
-        <v>2059.767694660928</v>
+        <v>1655.727290620524</v>
       </c>
     </row>
     <row r="9">
@@ -4880,25 +4880,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>51.94486801115937</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J9" t="n">
-        <v>51.94486801115937</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K9" t="n">
+        <v>44.49822504924753</v>
+      </c>
+      <c r="L9" t="n">
+        <v>44.49822504924753</v>
+      </c>
+      <c r="M9" t="n">
         <v>201.1892506764427</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>751.8547856608809</v>
       </c>
-      <c r="M9" t="n">
+      <c r="O9" t="n">
         <v>1302.520320645319</v>
-      </c>
-      <c r="N9" t="n">
-        <v>1853.185855629757</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1853.185855629757</v>
       </c>
       <c r="P9" t="n">
         <v>1853.185855629757</v>
@@ -4938,13 +4938,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>955.7067844524004</v>
+        <v>961.4711417263379</v>
       </c>
       <c r="C10" t="n">
-        <v>955.7067844524004</v>
+        <v>789.4985786052539</v>
       </c>
       <c r="D10" t="n">
-        <v>792.3900115791711</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="E10" t="n">
         <v>626.1818057320246</v>
@@ -4986,28 +4986,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S10" t="n">
-        <v>2054.776204981511</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T10" t="n">
-        <v>2054.776204981511</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U10" t="n">
-        <v>1774.591756481815</v>
+        <v>2177.107646522315</v>
       </c>
       <c r="V10" t="n">
-        <v>1699.46585314434</v>
+        <v>1895.396179130343</v>
       </c>
       <c r="W10" t="n">
-        <v>1424.613449316853</v>
+        <v>1620.543775302856</v>
       </c>
       <c r="X10" t="n">
-        <v>1182.049552762658</v>
+        <v>1377.979878748662</v>
       </c>
       <c r="Y10" t="n">
-        <v>955.7067844524004</v>
+        <v>1151.637110438404</v>
       </c>
     </row>
     <row r="11">
@@ -5041,37 +5041,37 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J11" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K11" t="n">
-        <v>651.5495334576516</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L11" t="n">
-        <v>1581.174581076928</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M11" t="n">
-        <v>2585.460682495986</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N11" t="n">
-        <v>3561.711740982687</v>
+        <v>3086.290586304201</v>
       </c>
       <c r="O11" t="n">
-        <v>4406.8563911335</v>
+        <v>3931.435236455013</v>
       </c>
       <c r="P11" t="n">
-        <v>5115.135670291427</v>
+        <v>4639.71451561294</v>
       </c>
       <c r="Q11" t="n">
-        <v>5115.135670291427</v>
+        <v>5095.799995117123</v>
       </c>
       <c r="R11" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S11" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T11" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U11" t="n">
         <v>4531.487895805612</v>
@@ -5083,7 +5083,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X11" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y11" t="n">
         <v>2960.549862354846</v>
@@ -5117,19 +5117,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I12" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J12" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K12" t="n">
-        <v>692.7876399741681</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L12" t="n">
-        <v>692.7876399741681</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M12" t="n">
-        <v>1748.774177950213</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N12" t="n">
         <v>1910.990343986338</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3679.785021471328</v>
+        <v>941.9189991784957</v>
       </c>
       <c r="C13" t="n">
-        <v>3507.812458350244</v>
+        <v>769.9464360574117</v>
       </c>
       <c r="D13" t="n">
-        <v>3344.495685477015</v>
+        <v>606.6296631841824</v>
       </c>
       <c r="E13" t="n">
-        <v>3178.287479629868</v>
+        <v>440.4214573370359</v>
       </c>
       <c r="F13" t="n">
-        <v>3178.287479629868</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G13" t="n">
-        <v>3178.287479629868</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H13" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I13" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J13" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K13" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L13" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M13" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N13" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O13" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P13" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q13" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R13" t="n">
-        <v>5068.0970569786</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S13" t="n">
-        <v>4897.962009497735</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T13" t="n">
-        <v>4654.622661723635</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="U13" t="n">
-        <v>4374.43821322394</v>
+        <v>2157.555503974472</v>
       </c>
       <c r="V13" t="n">
-        <v>4092.726745831969</v>
+        <v>1875.844036582501</v>
       </c>
       <c r="W13" t="n">
-        <v>4092.726745831969</v>
+        <v>1600.991632755014</v>
       </c>
       <c r="X13" t="n">
-        <v>3850.162849277774</v>
+        <v>1358.427736200819</v>
       </c>
       <c r="Y13" t="n">
-        <v>3679.785021471328</v>
+        <v>1132.084967890561</v>
       </c>
     </row>
     <row r="14">
@@ -5278,31 +5278,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J14" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K14" t="n">
-        <v>464.9061722227241</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L14" t="n">
-        <v>1394.531219842001</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M14" t="n">
-        <v>2398.817321261059</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N14" t="n">
-        <v>3375.06837974776</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O14" t="n">
-        <v>3833.214576747414</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P14" t="n">
-        <v>4541.493855905342</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="Q14" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R14" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S14" t="n">
         <v>5010.768376164567</v>
@@ -5320,7 +5320,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X14" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y14" t="n">
         <v>2960.549862354846</v>
@@ -5354,28 +5354,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I15" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J15" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K15" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L15" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M15" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N15" t="n">
-        <v>1021.509065974867</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O15" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P15" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q15" t="n">
         <v>1910.990343986338</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>747.4857348434895</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C16" t="n">
-        <v>747.4857348434895</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D16" t="n">
-        <v>584.1689619702602</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E16" t="n">
-        <v>417.9607561231137</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F16" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G16" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H16" t="n">
         <v>102.3027134058285</v>
@@ -5436,10 +5436,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J16" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K16" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L16" t="n">
         <v>741.0109641302445</v>
@@ -5460,28 +5460,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R16" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S16" t="n">
-        <v>2235.67712750613</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T16" t="n">
-        <v>1992.33777973203</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U16" t="n">
-        <v>1712.153331232334</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V16" t="n">
-        <v>1430.441863840363</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W16" t="n">
-        <v>1155.589460012876</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X16" t="n">
-        <v>937.6517035555551</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y16" t="n">
-        <v>937.6517035555551</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D17" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E17" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623582</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K17" t="n">
-        <v>533.9931985757493</v>
+        <v>1007.532766690841</v>
       </c>
       <c r="L17" t="n">
-        <v>1463.618246195026</v>
+        <v>1007.532766690841</v>
       </c>
       <c r="M17" t="n">
-        <v>2467.904347614084</v>
+        <v>2011.818868109899</v>
       </c>
       <c r="N17" t="n">
-        <v>3444.155406100785</v>
+        <v>2988.0699265966</v>
       </c>
       <c r="O17" t="n">
-        <v>4289.300056251597</v>
+        <v>3833.214576747412</v>
       </c>
       <c r="P17" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.49385590534</v>
       </c>
       <c r="Q17" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409523</v>
       </c>
       <c r="R17" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="S17" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164566</v>
       </c>
       <c r="T17" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U17" t="n">
-        <v>4531.487895805612</v>
+        <v>4531.487895805611</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.99848093186</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232207</v>
       </c>
       <c r="X17" t="n">
         <v>3365.887132399956</v>
       </c>
       <c r="Y17" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="18">
@@ -5585,34 +5585,34 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G18" t="n">
-        <v>155.678806643519</v>
+        <v>155.6788066435189</v>
       </c>
       <c r="H18" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677403</v>
       </c>
       <c r="J18" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K18" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L18" t="n">
-        <v>730.647150085061</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="M18" t="n">
-        <v>730.647150085061</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="N18" t="n">
-        <v>730.647150085061</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="O18" t="n">
-        <v>730.647150085061</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P18" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q18" t="n">
         <v>1910.990343986338</v>
@@ -5649,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.592292076367</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C19" t="n">
-        <v>926.6197289552831</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D19" t="n">
-        <v>763.3029560820538</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E19" t="n">
-        <v>597.0947502349073</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F19" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G19" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H19" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K19" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L19" t="n">
         <v>741.0109641302445</v>
@@ -5700,25 +5700,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T19" t="n">
-        <v>2039.376393044857</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U19" t="n">
-        <v>2039.376393044857</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V19" t="n">
-        <v>1757.664925652886</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W19" t="n">
-        <v>1757.664925652886</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X19" t="n">
-        <v>1515.101029098691</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y19" t="n">
-        <v>1288.758260788433</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D20" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E20" t="n">
         <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883226</v>
       </c>
       <c r="H20" t="n">
         <v>137.1995846623573</v>
@@ -5752,52 +5752,52 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>102.3027134058285</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K20" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N20" t="n">
-        <v>2988.069926596602</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O20" t="n">
-        <v>3833.214576747414</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P20" t="n">
-        <v>4541.493855905342</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q20" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R20" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S20" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U20" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X20" t="n">
         <v>3365.887132399956</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="21">
@@ -5828,22 +5828,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J21" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K21" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L21" t="n">
-        <v>102.3027134058285</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M21" t="n">
-        <v>1158.289251381874</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N21" t="n">
-        <v>1158.289251381874</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O21" t="n">
         <v>1910.990343986338</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>888.2776948471626</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C22" t="n">
-        <v>716.3051317260786</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D22" t="n">
-        <v>716.3051317260786</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E22" t="n">
-        <v>550.0969258789321</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F22" t="n">
-        <v>378.2351516534925</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G22" t="n">
-        <v>211.9781819477246</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I22" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K22" t="n">
-        <v>386.3216428358269</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L22" t="n">
-        <v>741.0109641302477</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M22" t="n">
-        <v>1132.196759100498</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N22" t="n">
-        <v>1509.688269976534</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O22" t="n">
-        <v>1865.116398656297</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P22" t="n">
-        <v>2155.715610578198</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q22" t="n">
-        <v>2282.71574081896</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>2235.677127506133</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>2065.542080025268</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T22" t="n">
-        <v>1822.202732251168</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U22" t="n">
-        <v>1822.202732251168</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V22" t="n">
-        <v>1822.202732251168</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W22" t="n">
-        <v>1547.350328423681</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X22" t="n">
-        <v>1304.786431869486</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y22" t="n">
-        <v>1078.443663559228</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="23">
@@ -5989,25 +5989,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N23" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O23" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P23" t="n">
-        <v>4573.117879057176</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q23" t="n">
         <v>4997.579335409525</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3608.081958945198</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C25" t="n">
-        <v>3436.109395824114</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D25" t="n">
-        <v>3272.792622950885</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E25" t="n">
-        <v>3106.584417103738</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F25" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G25" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H25" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I25" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J25" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K25" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L25" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M25" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N25" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O25" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P25" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q25" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>4897.962009497735</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T25" t="n">
-        <v>4654.622661723635</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U25" t="n">
-        <v>4374.43821322394</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V25" t="n">
-        <v>4299.443099795008</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W25" t="n">
-        <v>4024.590695967522</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X25" t="n">
-        <v>4024.590695967522</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y25" t="n">
-        <v>3798.247927657264</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="26">
@@ -6226,25 +6226,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
-        <v>817.8110213813276</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="L26" t="n">
-        <v>1747.436069000604</v>
+        <v>1394.531219842001</v>
       </c>
       <c r="M26" t="n">
-        <v>2751.722170419663</v>
+        <v>2398.817321261059</v>
       </c>
       <c r="N26" t="n">
-        <v>3727.973228906364</v>
+        <v>3375.06837974776</v>
       </c>
       <c r="O26" t="n">
-        <v>4573.117879057176</v>
+        <v>4220.213029898572</v>
       </c>
       <c r="P26" t="n">
-        <v>4659.050190787244</v>
+        <v>4928.4923090565</v>
       </c>
       <c r="Q26" t="n">
         <v>5115.135670291427</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3592.307024914129</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C28" t="n">
-        <v>3420.334461793045</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D28" t="n">
-        <v>3366.956386690937</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E28" t="n">
-        <v>3200.748180843791</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F28" t="n">
-        <v>3200.748180843791</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G28" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H28" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I28" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J28" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K28" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L28" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M28" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N28" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O28" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P28" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q28" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>4897.962009497735</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T28" t="n">
-        <v>4897.962009497735</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U28" t="n">
-        <v>4617.77756099804</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V28" t="n">
-        <v>4336.066093606069</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W28" t="n">
-        <v>4061.213689778582</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X28" t="n">
-        <v>3818.649793224387</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y28" t="n">
-        <v>3592.307024914129</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="29">
@@ -6466,25 +6466,25 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K29" t="n">
-        <v>464.9061722227241</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L29" t="n">
-        <v>1394.531219842001</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M29" t="n">
-        <v>2398.817321261059</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N29" t="n">
-        <v>3375.06837974776</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O29" t="n">
-        <v>4220.213029898572</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P29" t="n">
-        <v>4928.4923090565</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q29" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R29" t="n">
         <v>5115.135670291427</v>
@@ -6539,31 +6539,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I30" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J30" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K30" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="L30" t="n">
-        <v>102.3027134058285</v>
+        <v>1218.245653730238</v>
       </c>
       <c r="M30" t="n">
-        <v>1158.289251381874</v>
+        <v>1218.245653730238</v>
       </c>
       <c r="N30" t="n">
-        <v>1910.990343986338</v>
+        <v>1218.245653730238</v>
       </c>
       <c r="O30" t="n">
-        <v>1910.990343986338</v>
+        <v>1218.245653730238</v>
       </c>
       <c r="P30" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q30" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R30" t="n">
         <v>1910.990343986338</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3158.801708427964</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C31" t="n">
-        <v>2986.82914530688</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D31" t="n">
-        <v>2934.722642878299</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E31" t="n">
-        <v>2934.722642878299</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F31" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G31" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H31" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I31" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J31" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K31" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L31" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M31" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N31" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O31" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P31" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q31" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>4897.962009497735</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T31" t="n">
-        <v>4654.622661723635</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U31" t="n">
-        <v>4374.43821322394</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V31" t="n">
-        <v>4092.726745831969</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W31" t="n">
-        <v>3817.874342004482</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X31" t="n">
-        <v>3575.310445450287</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y31" t="n">
-        <v>3348.967677140029</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="32">
@@ -6700,19 +6700,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N32" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O32" t="n">
         <v>3833.214576747414</v>
@@ -6785,19 +6785,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L33" t="n">
-        <v>557.3635891120873</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M33" t="n">
-        <v>557.3635891120873</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N33" t="n">
-        <v>557.3635891120873</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O33" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P33" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q33" t="n">
         <v>1910.990343986338</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3158.801708427964</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C34" t="n">
-        <v>3158.801708427964</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D34" t="n">
-        <v>2995.484935554734</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E34" t="n">
-        <v>2934.722642878299</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F34" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G34" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H34" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I34" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J34" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K34" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L34" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M34" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N34" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O34" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P34" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q34" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>4897.962009497735</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T34" t="n">
-        <v>4654.622661723635</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U34" t="n">
-        <v>4374.43821322394</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V34" t="n">
-        <v>4092.726745831969</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W34" t="n">
-        <v>3817.874342004482</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X34" t="n">
-        <v>3575.310445450287</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y34" t="n">
-        <v>3348.967677140029</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="35">
@@ -6919,67 +6919,67 @@
         <v>2113.800768076616</v>
       </c>
       <c r="D35" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261615</v>
       </c>
       <c r="E35" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409473</v>
       </c>
       <c r="F35" t="n">
-        <v>839.407025598874</v>
+        <v>839.4070255988735</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883227</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623574</v>
+        <v>137.1995846623572</v>
       </c>
       <c r="I35" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>102.3027134058285</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K35" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L35" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M35" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N35" t="n">
-        <v>2988.069926596602</v>
+        <v>2988.069926596597</v>
       </c>
       <c r="O35" t="n">
-        <v>3833.214576747414</v>
+        <v>3833.214576747409</v>
       </c>
       <c r="P35" t="n">
-        <v>4541.493855905342</v>
+        <v>4541.493855905337</v>
       </c>
       <c r="Q35" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.57933540952</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291423</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164562</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209196</v>
       </c>
       <c r="U35" t="n">
-        <v>4531.487895805612</v>
+        <v>4531.487895805608</v>
       </c>
       <c r="V35" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931858</v>
       </c>
       <c r="W35" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232205</v>
       </c>
       <c r="X35" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y35" t="n">
         <v>2960.549862354846</v>
@@ -6992,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>669.4262044372838</v>
+        <v>669.4262044372837</v>
       </c>
       <c r="C36" t="n">
-        <v>551.9203009547886</v>
+        <v>551.9203009547884</v>
       </c>
       <c r="D36" t="n">
-        <v>448.0803424700736</v>
+        <v>448.0803424700735</v>
       </c>
       <c r="E36" t="n">
-        <v>343.3784087430108</v>
+        <v>343.3784087430107</v>
       </c>
       <c r="F36" t="n">
         <v>249.7325784259149</v>
       </c>
       <c r="G36" t="n">
-        <v>155.678806643519</v>
+        <v>155.6788066435189</v>
       </c>
       <c r="H36" t="n">
         <v>102.3027134058285</v>
@@ -7016,28 +7016,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J36" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K36" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L36" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M36" t="n">
-        <v>374.0002026854196</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N36" t="n">
-        <v>1364.825557038856</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O36" t="n">
-        <v>1364.825557038856</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P36" t="n">
-        <v>1364.825557038856</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q36" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R36" t="n">
         <v>1910.990343986338</v>
@@ -7058,10 +7058,10 @@
         <v>1101.523448737391</v>
       </c>
       <c r="X36" t="n">
-        <v>938.0461025040541</v>
+        <v>938.046102504054</v>
       </c>
       <c r="Y36" t="n">
-        <v>798.3532138573465</v>
+        <v>798.3532138573464</v>
       </c>
     </row>
     <row r="37">
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>373.4203922683193</v>
+        <v>446.1370507523518</v>
       </c>
       <c r="C37" t="n">
-        <v>201.4478291472353</v>
+        <v>274.1644876312679</v>
       </c>
       <c r="D37" t="n">
-        <v>102.3027134058285</v>
+        <v>274.1644876312679</v>
       </c>
       <c r="E37" t="n">
-        <v>102.3027134058285</v>
+        <v>274.1644876312679</v>
       </c>
       <c r="F37" t="n">
         <v>102.3027134058285</v>
@@ -7098,49 +7098,49 @@
         <v>159.7940416299866</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358239</v>
       </c>
       <c r="L37" t="n">
-        <v>741.0109641302445</v>
+        <v>741.0109641302447</v>
       </c>
       <c r="M37" t="n">
-        <v>1132.196759100495</v>
+        <v>1132.196759100496</v>
       </c>
       <c r="N37" t="n">
-        <v>1509.688269976531</v>
+        <v>1509.688269976532</v>
       </c>
       <c r="O37" t="n">
-        <v>1865.116398656294</v>
+        <v>1865.116398656295</v>
       </c>
       <c r="P37" t="n">
-        <v>2155.715610578195</v>
+        <v>2155.715610578196</v>
       </c>
       <c r="Q37" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.715740818958</v>
       </c>
       <c r="R37" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.715740818958</v>
       </c>
       <c r="S37" t="n">
-        <v>2112.580693338092</v>
+        <v>2185.297351822123</v>
       </c>
       <c r="T37" t="n">
-        <v>1869.241345563992</v>
+        <v>1941.958004048023</v>
       </c>
       <c r="U37" t="n">
-        <v>1589.056897064296</v>
+        <v>1661.773555548328</v>
       </c>
       <c r="V37" t="n">
-        <v>1307.345429672325</v>
+        <v>1380.062088156357</v>
       </c>
       <c r="W37" t="n">
-        <v>1032.493025844838</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X37" t="n">
-        <v>789.9291292906429</v>
+        <v>862.6457877746751</v>
       </c>
       <c r="Y37" t="n">
-        <v>563.5863609803849</v>
+        <v>636.3030194644173</v>
       </c>
     </row>
     <row r="38">
@@ -7156,70 +7156,70 @@
         <v>2113.800768076615</v>
       </c>
       <c r="D38" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261615</v>
       </c>
       <c r="E38" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409473</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988735</v>
       </c>
       <c r="G38" t="n">
         <v>435.0679631883222</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623571</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K38" t="n">
         <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>2110.0395278175</v>
+        <v>2011.818868109896</v>
       </c>
       <c r="M38" t="n">
-        <v>3114.325629236558</v>
+        <v>2011.818868109896</v>
       </c>
       <c r="N38" t="n">
-        <v>3444.155406100785</v>
+        <v>2988.069926596597</v>
       </c>
       <c r="O38" t="n">
-        <v>4289.300056251597</v>
+        <v>3833.214576747409</v>
       </c>
       <c r="P38" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.493855905337</v>
       </c>
       <c r="Q38" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.57933540952</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291423</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164563</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209197</v>
       </c>
       <c r="U38" t="n">
-        <v>4531.487895805612</v>
+        <v>4531.487895805609</v>
       </c>
       <c r="V38" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931858</v>
       </c>
       <c r="W38" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232206</v>
       </c>
       <c r="X38" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399953</v>
       </c>
       <c r="Y38" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354845</v>
       </c>
     </row>
     <row r="39">
@@ -7229,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>669.4262044372838</v>
+        <v>669.4262044372837</v>
       </c>
       <c r="C39" t="n">
-        <v>551.9203009547886</v>
+        <v>551.9203009547884</v>
       </c>
       <c r="D39" t="n">
-        <v>448.0803424700736</v>
+        <v>448.0803424700735</v>
       </c>
       <c r="E39" t="n">
-        <v>343.3784087430108</v>
+        <v>343.3784087430107</v>
       </c>
       <c r="F39" t="n">
         <v>249.7325784259149</v>
       </c>
       <c r="G39" t="n">
-        <v>155.678806643519</v>
+        <v>155.6788066435189</v>
       </c>
       <c r="H39" t="n">
         <v>102.3027134058285</v>
@@ -7262,13 +7262,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M39" t="n">
-        <v>305.3113489363686</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N39" t="n">
-        <v>305.3113489363686</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O39" t="n">
-        <v>1194.79262694784</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P39" t="n">
         <v>1910.990343986338</v>
@@ -7295,10 +7295,10 @@
         <v>1101.523448737391</v>
       </c>
       <c r="X39" t="n">
-        <v>938.0461025040541</v>
+        <v>938.046102504054</v>
       </c>
       <c r="Y39" t="n">
-        <v>798.3532138573465</v>
+        <v>798.3532138573464</v>
       </c>
     </row>
     <row r="40">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1185.483835930065</v>
+        <v>373.4203922683217</v>
       </c>
       <c r="C40" t="n">
-        <v>1013.511272808982</v>
+        <v>274.1644876312679</v>
       </c>
       <c r="D40" t="n">
-        <v>850.1944999357522</v>
+        <v>274.1644876312679</v>
       </c>
       <c r="E40" t="n">
-        <v>683.9862940886057</v>
+        <v>274.1644876312679</v>
       </c>
       <c r="F40" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G40" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H40" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
@@ -7335,49 +7335,49 @@
         <v>159.7940416299866</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358239</v>
       </c>
       <c r="L40" t="n">
-        <v>741.0109641302445</v>
+        <v>741.0109641302448</v>
       </c>
       <c r="M40" t="n">
-        <v>1132.196759100495</v>
+        <v>1132.196759100496</v>
       </c>
       <c r="N40" t="n">
-        <v>1509.688269976531</v>
+        <v>1509.688269976532</v>
       </c>
       <c r="O40" t="n">
-        <v>1865.116398656294</v>
+        <v>1865.116398656295</v>
       </c>
       <c r="P40" t="n">
-        <v>2155.715610578195</v>
+        <v>2155.715610578196</v>
       </c>
       <c r="Q40" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.715740818958</v>
       </c>
       <c r="R40" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.715740818958</v>
       </c>
       <c r="S40" t="n">
-        <v>2282.715740818957</v>
+        <v>2112.580693338093</v>
       </c>
       <c r="T40" t="n">
-        <v>2282.715740818957</v>
+        <v>1869.241345563993</v>
       </c>
       <c r="U40" t="n">
-        <v>2282.715740818957</v>
+        <v>1589.056897064298</v>
       </c>
       <c r="V40" t="n">
-        <v>2119.408873334071</v>
+        <v>1307.345429672327</v>
       </c>
       <c r="W40" t="n">
-        <v>1844.556469506584</v>
+        <v>1032.49302584484</v>
       </c>
       <c r="X40" t="n">
-        <v>1601.992572952389</v>
+        <v>789.9291292906451</v>
       </c>
       <c r="Y40" t="n">
-        <v>1375.649804642131</v>
+        <v>563.5863609803872</v>
       </c>
     </row>
     <row r="41">
@@ -7387,31 +7387,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063314</v>
       </c>
       <c r="C41" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D41" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261615</v>
       </c>
       <c r="E41" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409473</v>
       </c>
       <c r="F41" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G41" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H41" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623571</v>
       </c>
       <c r="I41" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K41" t="n">
         <v>1180.414480198223</v>
@@ -7420,43 +7420,43 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M41" t="n">
-        <v>3114.325629236558</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N41" t="n">
-        <v>3561.711740982687</v>
+        <v>2988.069926596598</v>
       </c>
       <c r="O41" t="n">
-        <v>4406.8563911335</v>
+        <v>3833.21457674741</v>
       </c>
       <c r="P41" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905338</v>
       </c>
       <c r="Q41" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409521</v>
       </c>
       <c r="R41" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291424</v>
       </c>
       <c r="S41" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164564</v>
       </c>
       <c r="T41" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209197</v>
       </c>
       <c r="U41" t="n">
-        <v>4531.487895805612</v>
+        <v>4531.487895805609</v>
       </c>
       <c r="V41" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931858</v>
       </c>
       <c r="W41" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232206</v>
       </c>
       <c r="X41" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399953</v>
       </c>
       <c r="Y41" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354844</v>
       </c>
     </row>
     <row r="42">
@@ -7466,49 +7466,49 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>669.4262044372838</v>
+        <v>669.4262044372837</v>
       </c>
       <c r="C42" t="n">
-        <v>551.9203009547886</v>
+        <v>551.9203009547884</v>
       </c>
       <c r="D42" t="n">
-        <v>448.0803424700736</v>
+        <v>448.0803424700735</v>
       </c>
       <c r="E42" t="n">
-        <v>343.3784087430108</v>
+        <v>343.3784087430107</v>
       </c>
       <c r="F42" t="n">
         <v>249.7325784259149</v>
       </c>
       <c r="G42" t="n">
-        <v>155.678806643519</v>
+        <v>155.6788066435189</v>
       </c>
       <c r="H42" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="I42" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J42" t="n">
-        <v>381.4468456473314</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K42" t="n">
-        <v>381.4468456473314</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L42" t="n">
-        <v>1218.245653730238</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M42" t="n">
-        <v>1218.245653730238</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N42" t="n">
-        <v>1218.245653730238</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O42" t="n">
-        <v>1218.245653730238</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P42" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q42" t="n">
         <v>1910.990343986338</v>
@@ -7532,10 +7532,10 @@
         <v>1101.523448737391</v>
       </c>
       <c r="X42" t="n">
-        <v>938.0461025040541</v>
+        <v>938.046102504054</v>
       </c>
       <c r="Y42" t="n">
-        <v>798.3532138573465</v>
+        <v>798.3532138573464</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3918.135197142815</v>
+        <v>446.1370507523517</v>
       </c>
       <c r="C43" t="n">
-        <v>3746.162634021731</v>
+        <v>274.1644876312679</v>
       </c>
       <c r="D43" t="n">
-        <v>3582.845861148502</v>
+        <v>274.1644876312679</v>
       </c>
       <c r="E43" t="n">
-        <v>3416.637655301356</v>
+        <v>274.1644876312679</v>
       </c>
       <c r="F43" t="n">
-        <v>3244.775881075916</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G43" t="n">
-        <v>3078.518911370148</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H43" t="n">
-        <v>2934.722642878302</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I43" t="n">
-        <v>2934.722642878302</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J43" t="n">
-        <v>2992.213971102461</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K43" t="n">
-        <v>3218.741572308298</v>
+        <v>386.3216428358239</v>
       </c>
       <c r="L43" t="n">
-        <v>3573.430893602719</v>
+        <v>741.0109641302508</v>
       </c>
       <c r="M43" t="n">
-        <v>3964.616688572969</v>
+        <v>1132.196759100502</v>
       </c>
       <c r="N43" t="n">
-        <v>4342.108199449005</v>
+        <v>1509.688269976538</v>
       </c>
       <c r="O43" t="n">
-        <v>4697.536328128768</v>
+        <v>1865.116398656301</v>
       </c>
       <c r="P43" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578202</v>
       </c>
       <c r="Q43" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818964</v>
       </c>
       <c r="R43" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818964</v>
       </c>
       <c r="S43" t="n">
-        <v>5115.135670291427</v>
+        <v>2112.580693338099</v>
       </c>
       <c r="T43" t="n">
-        <v>4871.796322517327</v>
+        <v>1869.241345563999</v>
       </c>
       <c r="U43" t="n">
-        <v>4871.796322517327</v>
+        <v>1589.056897064303</v>
       </c>
       <c r="V43" t="n">
-        <v>4661.894265834755</v>
+        <v>1307.345429672333</v>
       </c>
       <c r="W43" t="n">
-        <v>4387.041862007268</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X43" t="n">
-        <v>4144.477965453073</v>
+        <v>862.6457877746751</v>
       </c>
       <c r="Y43" t="n">
-        <v>3918.135197142815</v>
+        <v>636.3030194644173</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C44" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D44" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261615</v>
       </c>
       <c r="E44" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409473</v>
       </c>
       <c r="F44" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988735</v>
       </c>
       <c r="G44" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H44" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623571</v>
       </c>
       <c r="I44" t="n">
         <v>102.3027134058285</v>
@@ -7651,49 +7651,49 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K44" t="n">
-        <v>102.3027134058285</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L44" t="n">
-        <v>1031.927761025105</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M44" t="n">
-        <v>2036.213862444163</v>
+        <v>2585.460682495983</v>
       </c>
       <c r="N44" t="n">
-        <v>3012.464920930865</v>
+        <v>3561.711740982684</v>
       </c>
       <c r="O44" t="n">
-        <v>3857.609571081677</v>
+        <v>4406.856391133496</v>
       </c>
       <c r="P44" t="n">
-        <v>4565.888850239604</v>
+        <v>5115.135670291424</v>
       </c>
       <c r="Q44" t="n">
-        <v>5021.974329743787</v>
+        <v>5115.135670291424</v>
       </c>
       <c r="R44" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291424</v>
       </c>
       <c r="S44" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164565</v>
       </c>
       <c r="T44" t="n">
         <v>4789.842805209199</v>
       </c>
       <c r="U44" t="n">
-        <v>4531.487895805612</v>
+        <v>4531.487895805611</v>
       </c>
       <c r="V44" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.99848093186</v>
       </c>
       <c r="W44" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232207</v>
       </c>
       <c r="X44" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399954</v>
       </c>
       <c r="Y44" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354845</v>
       </c>
     </row>
     <row r="45">
@@ -7703,52 +7703,52 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>669.4262044372838</v>
+        <v>669.4262044372837</v>
       </c>
       <c r="C45" t="n">
-        <v>551.9203009547886</v>
+        <v>551.9203009547884</v>
       </c>
       <c r="D45" t="n">
-        <v>448.0803424700736</v>
+        <v>448.0803424700735</v>
       </c>
       <c r="E45" t="n">
-        <v>343.3784087430108</v>
+        <v>343.3784087430107</v>
       </c>
       <c r="F45" t="n">
         <v>249.7325784259149</v>
       </c>
       <c r="G45" t="n">
-        <v>155.678806643519</v>
+        <v>155.6788066435189</v>
       </c>
       <c r="H45" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="I45" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J45" t="n">
-        <v>381.4468456473314</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K45" t="n">
-        <v>381.4468456473314</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L45" t="n">
-        <v>381.4468456473314</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M45" t="n">
-        <v>381.4468456473314</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N45" t="n">
-        <v>381.4468456473314</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O45" t="n">
-        <v>1112.773316863137</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P45" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q45" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R45" t="n">
         <v>1910.990343986338</v>
@@ -7769,10 +7769,10 @@
         <v>1101.523448737391</v>
       </c>
       <c r="X45" t="n">
-        <v>938.0461025040541</v>
+        <v>938.046102504054</v>
       </c>
       <c r="Y45" t="n">
-        <v>798.3532138573465</v>
+        <v>798.3532138573464</v>
       </c>
     </row>
     <row r="46">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>786.8947875232845</v>
+        <v>446.1370507523517</v>
       </c>
       <c r="C46" t="n">
-        <v>614.9222244022005</v>
+        <v>274.1644876312679</v>
       </c>
       <c r="D46" t="n">
-        <v>451.6054515289712</v>
+        <v>274.1644876312679</v>
       </c>
       <c r="E46" t="n">
-        <v>451.6054515289712</v>
+        <v>274.1644876312679</v>
       </c>
       <c r="F46" t="n">
-        <v>451.6054515289712</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G46" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H46" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I46" t="n">
         <v>102.3027134058285</v>
@@ -7809,49 +7809,49 @@
         <v>159.7940416299866</v>
       </c>
       <c r="K46" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358239</v>
       </c>
       <c r="L46" t="n">
-        <v>741.0109641302445</v>
+        <v>741.0109641302448</v>
       </c>
       <c r="M46" t="n">
-        <v>1132.196759100495</v>
+        <v>1132.196759100496</v>
       </c>
       <c r="N46" t="n">
-        <v>1509.688269976531</v>
+        <v>1509.688269976532</v>
       </c>
       <c r="O46" t="n">
-        <v>1865.116398656294</v>
+        <v>1865.116398656295</v>
       </c>
       <c r="P46" t="n">
-        <v>2155.715610578195</v>
+        <v>2155.715610578196</v>
       </c>
       <c r="Q46" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.715740818958</v>
       </c>
       <c r="R46" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.715740818958</v>
       </c>
       <c r="S46" t="n">
-        <v>2282.715740818957</v>
+        <v>2112.580693338093</v>
       </c>
       <c r="T46" t="n">
-        <v>2282.715740818957</v>
+        <v>1869.241345563993</v>
       </c>
       <c r="U46" t="n">
-        <v>2002.531292319261</v>
+        <v>1589.056897064298</v>
       </c>
       <c r="V46" t="n">
-        <v>1720.81982492729</v>
+        <v>1307.345429672327</v>
       </c>
       <c r="W46" t="n">
-        <v>1445.967421099803</v>
+        <v>1032.49302584484</v>
       </c>
       <c r="X46" t="n">
-        <v>1203.403524545608</v>
+        <v>789.9291292906451</v>
       </c>
       <c r="Y46" t="n">
-        <v>977.0607562353503</v>
+        <v>563.5863609803872</v>
       </c>
     </row>
   </sheetData>
@@ -7978,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>32.95771412405789</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>35.76460079480934</v>
+        <v>519.541291948779</v>
       </c>
       <c r="L2" t="n">
-        <v>38.31204243262292</v>
+        <v>522.0887335865925</v>
       </c>
       <c r="M2" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>521.0563139884141</v>
+        <v>521.0563139884157</v>
       </c>
       <c r="O2" t="n">
-        <v>521.1676505099922</v>
+        <v>135.3549975170097</v>
       </c>
       <c r="P2" t="n">
-        <v>521.3520529641994</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q2" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R2" t="n">
         <v>35.03264989479647</v>
@@ -8057,31 +8057,31 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>506.1759249873014</v>
+        <v>506.1759249873029</v>
       </c>
       <c r="L3" t="n">
-        <v>506.2917778681976</v>
+        <v>506.2917778681992</v>
       </c>
       <c r="M3" t="n">
-        <v>23.09678051232798</v>
+        <v>116.7601397160826</v>
       </c>
       <c r="N3" t="n">
-        <v>306.6005078161778</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>506.9485808761902</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>21.77084120482866</v>
+        <v>505.5475323587983</v>
       </c>
       <c r="Q3" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R3" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8142,7 +8142,7 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L4" t="n">
-        <v>93.31363181978872</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M4" t="n">
         <v>417.7126065281028</v>
@@ -8154,7 +8154,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P4" t="n">
-        <v>315.9153581548562</v>
+        <v>29.03818836741396</v>
       </c>
       <c r="Q4" t="n">
         <v>152.9025226039384</v>
@@ -8215,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
         <v>591.9924139104035</v>
@@ -8227,13 +8227,13 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>571.1449214366446</v>
+        <v>204.8788014195786</v>
       </c>
       <c r="P5" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q5" t="n">
         <v>36.12467460459804</v>
@@ -8294,16 +8294,16 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
         <v>578.6270469489275</v>
       </c>
       <c r="L6" t="n">
-        <v>578.7428998298237</v>
+        <v>459.5991032870439</v>
       </c>
       <c r="M6" t="n">
-        <v>91.00089423008578</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
         <v>21.34302821354166</v>
@@ -8312,10 +8312,10 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>577.9986543204228</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
         <v>106.5207073584907</v>
@@ -8373,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>78.70880469517259</v>
+        <v>78.70880469517321</v>
       </c>
       <c r="K7" t="n">
         <v>249.7804132464869</v>
@@ -8458,10 +8458,10 @@
         <v>591.9924139104035</v>
       </c>
       <c r="L8" t="n">
-        <v>572.0660045132436</v>
+        <v>453.322231905261</v>
       </c>
       <c r="M8" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N8" t="n">
         <v>37.27962283444602</v>
@@ -8470,13 +8470,13 @@
         <v>593.6187724716183</v>
       </c>
       <c r="P8" t="n">
-        <v>593.8031749258255</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q8" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R8" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8528,28 +8528,28 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J9" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
-        <v>173.1511355154377</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>579.3245936279221</v>
+        <v>181.3705437721211</v>
       </c>
       <c r="N9" t="n">
         <v>577.5708413291358</v>
       </c>
       <c r="O9" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P9" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q9" t="n">
         <v>22.7470382889785</v>
@@ -8692,13 +8692,13 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
-        <v>224.2932485068573</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N11" t="n">
         <v>1023.391803124043</v>
@@ -8710,10 +8710,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
-        <v>35.03264989479647</v>
+        <v>54.56363491934506</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,22 +8765,22 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
         <v>618.848654609434</v>
       </c>
       <c r="L12" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M12" t="n">
-        <v>1089.749849175</v>
+        <v>126.3894711060262</v>
       </c>
       <c r="N12" t="n">
-        <v>185.1977413813447</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
         <v>23.17188972222222</v>
@@ -8929,7 +8929,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
         <v>977.3272420480539</v>
@@ -8941,16 +8941,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
-        <v>500.1648957193109</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q14" t="n">
-        <v>496.8170781441769</v>
+        <v>217.3512730059673</v>
       </c>
       <c r="R14" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,13 +9002,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L15" t="n">
         <v>22.51508671422956</v>
@@ -9017,16 +9017,16 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>949.8342934347922</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>21.77084120482866</v>
+        <v>501.4810380814832</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R15" t="n">
         <v>23.67291939414415</v>
@@ -9166,10 +9166,10 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
-        <v>105.5494758988752</v>
+        <v>583.8722719747252</v>
       </c>
       <c r="L17" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M17" t="n">
         <v>1051.861668373228</v>
@@ -9184,7 +9184,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
         <v>153.7764225027789</v>
@@ -9239,16 +9239,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L18" t="n">
-        <v>657.2064368952725</v>
+        <v>247.6270611911683</v>
       </c>
       <c r="M18" t="n">
         <v>23.09678051232798</v>
@@ -9263,7 +9263,7 @@
         <v>745.2028786174529</v>
       </c>
       <c r="Q18" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R18" t="n">
         <v>23.67291939414415</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
         <v>758.5002654165255</v>
@@ -9409,10 +9409,10 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N20" t="n">
-        <v>276.0147300838795</v>
+        <v>924.1790155406089</v>
       </c>
       <c r="O20" t="n">
         <v>891.0724241548241</v>
@@ -9476,25 +9476,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L21" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M21" t="n">
-        <v>1089.749849175</v>
+        <v>126.3894711060262</v>
       </c>
       <c r="N21" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>783.4760236661258</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
         <v>21.77084120482866</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
         <v>758.5002654165255</v>
@@ -9646,19 +9646,19 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N23" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>464.8736204150517</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
         <v>153.7764225027789</v>
@@ -9874,10 +9874,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L26" t="n">
         <v>977.3272420480539</v>
@@ -9892,10 +9892,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>124.3756766890881</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
-        <v>496.8170781441769</v>
+        <v>224.6533223166459</v>
       </c>
       <c r="R26" t="n">
         <v>35.03264989479647</v>
@@ -10114,16 +10114,16 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L29" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N29" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O29" t="n">
         <v>891.0724241548241</v>
@@ -10132,10 +10132,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
-        <v>224.6533223166459</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,34 +10187,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L30" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M30" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>21.77084120482866</v>
+        <v>169.8313495973723</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
         <v>758.5002654165255</v>
@@ -10357,13 +10357,13 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M32" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N32" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O32" t="n">
-        <v>143.6953511146608</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
         <v>753.0089771212694</v>
@@ -10433,13 +10433,13 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L33" t="n">
-        <v>482.1725369225717</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>21.34302821354166</v>
+        <v>949.8342934347922</v>
       </c>
       <c r="O33" t="n">
         <v>921.6378271075471</v>
@@ -10448,7 +10448,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q33" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R33" t="n">
         <v>23.67291939414415</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
         <v>758.5002654165255</v>
@@ -10594,10 +10594,10 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N35" t="n">
-        <v>276.0147300838795</v>
+        <v>924.1790155406053</v>
       </c>
       <c r="O35" t="n">
         <v>891.0724241548241</v>
@@ -10664,7 +10664,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J36" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K36" t="n">
         <v>22.39923383333334</v>
@@ -10673,10 +10673,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>23.09678051232798</v>
+        <v>749.73585536853</v>
       </c>
       <c r="N36" t="n">
-        <v>1022.176719479639</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O36" t="n">
         <v>23.17188972222222</v>
@@ -10685,10 +10685,10 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q36" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R36" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10828,13 +10828,13 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
-        <v>977.3272420480539</v>
+        <v>878.1144544646163</v>
       </c>
       <c r="M38" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N38" t="n">
-        <v>370.4410136063929</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O38" t="n">
         <v>891.0724241548241</v>
@@ -10843,7 +10843,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
         <v>153.7764225027789</v>
@@ -10910,16 +10910,16 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>228.1560083209543</v>
+        <v>749.73585536853</v>
       </c>
       <c r="N39" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O39" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q39" t="n">
         <v>22.7470382889785</v>
@@ -11068,10 +11068,10 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N41" t="n">
-        <v>489.184786214375</v>
+        <v>924.1790155406062</v>
       </c>
       <c r="O41" t="n">
         <v>891.0724241548241</v>
@@ -11080,10 +11080,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11135,31 +11135,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J42" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K42" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L42" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>23.09678051232798</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N42" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O42" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>252.679137561719</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q42" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R42" t="n">
         <v>23.67291939414415</v>
@@ -11299,13 +11299,13 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K44" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>1051.861668373228</v>
+        <v>883.9207714806223</v>
       </c>
       <c r="N44" t="n">
         <v>1023.391803124043</v>
@@ -11317,10 +11317,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R44" t="n">
-        <v>129.1350140843319</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11372,10 +11372,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J45" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K45" t="n">
         <v>22.39923383333334</v>
@@ -11387,19 +11387,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>21.34302821354166</v>
+        <v>949.8342934347922</v>
       </c>
       <c r="O45" t="n">
-        <v>761.8854970109148</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P45" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q45" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R45" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23427,16 +23427,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,25 +23466,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>200.0421967183575</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>55.40529109877383</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23655,22 +23655,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>71.98949189919249</v>
       </c>
       <c r="G16" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
         <v>98.77088257712678</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>24.37987869590512</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>86.02262841516141</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,19 +23940,19 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24135,19 +24135,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>132.5504745275768</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24369,13 +24369,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>71.9894918991925</v>
       </c>
       <c r="G25" t="n">
         <v>164.5944000087102</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24423,13 +24423,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>204.6491904234094</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>108.8393107934104</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24843,13 +24843,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>110.098167740202</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>164.5944000087102</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25077,16 +25077,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>104.3914540390037</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>164.5944000087102</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25317,19 +25317,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>63.52994056050431</v>
+        <v>161.6836051444969</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>164.5461237886749</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>164.5944000087101</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>142.358305806927</v>
       </c>
       <c r="I37" t="n">
         <v>98.77088257712678</v>
@@ -25362,7 +25362,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>71.98949189918984</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>71.9894918991897</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.6836051444969</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.5461237886748</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.59440000871</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.358305806927</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,16 +25599,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.5461237886748</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.59440000871</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.358305806927</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>98.77088257712664</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,22 +25833,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>46.56822717969844</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>71.09131660230508</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>71.98949189918386</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>71.98949189918974</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.6836051444969</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>164.5461237886748</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>59.91387765085291</v>
+        <v>164.59440000871</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.358305806927</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>46.56822717969844</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>534990.2962587667</v>
+        <v>534990.2962587664</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>534990.2962587664</v>
+        <v>534990.2962587666</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>524198.4012100468</v>
+      </c>
+      <c r="C2" t="n">
         <v>524198.401210047</v>
       </c>
-      <c r="C2" t="n">
-        <v>524198.4012100468</v>
-      </c>
       <c r="D2" t="n">
-        <v>524198.401210047</v>
+        <v>524198.4012100469</v>
       </c>
       <c r="E2" t="n">
-        <v>505827.3628237027</v>
+        <v>505827.3628237026</v>
       </c>
       <c r="F2" t="n">
         <v>505827.3628237026</v>
       </c>
       <c r="G2" t="n">
+        <v>505827.3628237028</v>
+      </c>
+      <c r="H2" t="n">
+        <v>505827.3628237026</v>
+      </c>
+      <c r="I2" t="n">
         <v>505827.3628237025</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
+        <v>505827.3628237026</v>
+      </c>
+      <c r="K2" t="n">
+        <v>505827.3628237027</v>
+      </c>
+      <c r="L2" t="n">
+        <v>505827.3628237027</v>
+      </c>
+      <c r="M2" t="n">
+        <v>505827.3628237024</v>
+      </c>
+      <c r="N2" t="n">
         <v>505827.3628237025</v>
-      </c>
-      <c r="I2" t="n">
-        <v>505827.3628237026</v>
-      </c>
-      <c r="J2" t="n">
-        <v>505827.3628237025</v>
-      </c>
-      <c r="K2" t="n">
-        <v>505827.3628237026</v>
-      </c>
-      <c r="L2" t="n">
-        <v>505827.3628237026</v>
-      </c>
-      <c r="M2" t="n">
-        <v>505827.3628237026</v>
-      </c>
-      <c r="N2" t="n">
-        <v>505827.3628237027</v>
       </c>
       <c r="O2" t="n">
         <v>505827.3628237026</v>
       </c>
       <c r="P2" t="n">
-        <v>505827.3628237025</v>
+        <v>505827.3628237023</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>162124.6960695912</v>
+        <v>162124.6960695918</v>
       </c>
       <c r="C3" t="n">
-        <v>23406.83367361221</v>
+        <v>23406.83367361169</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>215739.3565566406</v>
+        <v>215739.3565566405</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,19 +26389,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>126577.2685802888</v>
+        <v>126577.2685802892</v>
       </c>
       <c r="K3" t="n">
-        <v>18646.60035701978</v>
+        <v>18646.60035701937</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>180063.8714551676</v>
+        <v>180063.8714551674</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.735834661240838e-11</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187607.66954561</v>
+        <v>187607.6695456097</v>
       </c>
       <c r="C4" t="n">
         <v>173998.4022791778</v>
@@ -26432,7 +26432,7 @@
         <v>58064.51385187964</v>
       </c>
       <c r="G4" t="n">
-        <v>58064.51385187961</v>
+        <v>58064.51385187962</v>
       </c>
       <c r="H4" t="n">
         <v>58064.51385187964</v>
@@ -26450,16 +26450,16 @@
         <v>58064.51385187964</v>
       </c>
       <c r="M4" t="n">
-        <v>58064.51385187959</v>
+        <v>58064.51385187985</v>
       </c>
       <c r="N4" t="n">
-        <v>58064.51385187964</v>
+        <v>58064.51385187983</v>
       </c>
       <c r="O4" t="n">
-        <v>58064.5138518796</v>
+        <v>58064.51385187984</v>
       </c>
       <c r="P4" t="n">
-        <v>58064.51385187962</v>
+        <v>58064.51385187979</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63041.22282216125</v>
+        <v>63041.22282216135</v>
       </c>
       <c r="C5" t="n">
         <v>67446.25103742813</v>
@@ -26478,16 +26478,16 @@
         <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="F5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="G5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842966</v>
       </c>
       <c r="H5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="I5" t="n">
         <v>77750.06218842969</v>
@@ -26502,16 +26502,16 @@
         <v>77750.06218842969</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842964</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842964</v>
       </c>
       <c r="O5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842966</v>
       </c>
       <c r="P5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842966</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>111424.8127726845</v>
+        <v>111424.812772684</v>
       </c>
       <c r="C6" t="n">
-        <v>259346.9142198287</v>
+        <v>259346.9142198293</v>
       </c>
       <c r="D6" t="n">
-        <v>282753.747893441</v>
+        <v>282753.7478934409</v>
       </c>
       <c r="E6" t="n">
-        <v>154273.4302267528</v>
+        <v>154222.3995645684</v>
       </c>
       <c r="F6" t="n">
-        <v>370012.7867833933</v>
+        <v>369961.7561212091</v>
       </c>
       <c r="G6" t="n">
-        <v>370012.7867833932</v>
+        <v>369961.7561212092</v>
       </c>
       <c r="H6" t="n">
-        <v>370012.7867833931</v>
+        <v>369961.7561212089</v>
       </c>
       <c r="I6" t="n">
-        <v>370012.7867833933</v>
+        <v>369961.7561212089</v>
       </c>
       <c r="J6" t="n">
-        <v>243435.5182031044</v>
+        <v>243384.4875409197</v>
       </c>
       <c r="K6" t="n">
-        <v>351366.1864263734</v>
+        <v>351315.1557641897</v>
       </c>
       <c r="L6" t="n">
-        <v>370012.7867833932</v>
+        <v>369961.7561212091</v>
       </c>
       <c r="M6" t="n">
-        <v>189948.9153282257</v>
+        <v>189897.8846660412</v>
       </c>
       <c r="N6" t="n">
-        <v>370012.7867833934</v>
+        <v>369961.7561212088</v>
       </c>
       <c r="O6" t="n">
-        <v>370012.7867833934</v>
+        <v>369961.7561212088</v>
       </c>
       <c r="P6" t="n">
-        <v>370012.7867833932</v>
+        <v>369961.7561212086</v>
       </c>
     </row>
   </sheetData>
@@ -26718,16 +26718,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.0453962089344e-13</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
     </row>
     <row r="3">
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>483.776691153968</v>
+        <v>483.7766911539696</v>
       </c>
       <c r="C4" t="n">
         <v>556.2278131155941</v>
@@ -26804,7 +26804,7 @@
         <v>1278.783917572857</v>
       </c>
       <c r="G4" t="n">
-        <v>1278.783917572857</v>
+        <v>1278.783917572856</v>
       </c>
       <c r="H4" t="n">
         <v>1278.783917572857</v>
@@ -26822,16 +26822,16 @@
         <v>1278.783917572857</v>
       </c>
       <c r="M4" t="n">
-        <v>1278.783917572857</v>
+        <v>1278.783917572856</v>
       </c>
       <c r="N4" t="n">
-        <v>1278.783917572857</v>
+        <v>1278.783917572856</v>
       </c>
       <c r="O4" t="n">
-        <v>1278.783917572857</v>
+        <v>1278.783917572856</v>
       </c>
       <c r="P4" t="n">
-        <v>1278.783917572857</v>
+        <v>1278.783917572856</v>
       </c>
     </row>
   </sheetData>
@@ -26940,10 +26940,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.0453962089344e-13</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>3.419793326551047e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>483.776691153968</v>
+        <v>483.7766911539696</v>
       </c>
       <c r="C4" t="n">
-        <v>72.45112196162609</v>
+        <v>72.45112196162449</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>722.5561044572627</v>
+        <v>722.5561044572624</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>483.776691153968</v>
+        <v>483.7766911539696</v>
       </c>
       <c r="K4" t="n">
-        <v>72.45112196162609</v>
+        <v>72.45112196162449</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>722.5561044572627</v>
+        <v>722.5561044572613</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>483.776691153968</v>
+        <v>483.7766911539696</v>
       </c>
       <c r="K4" t="n">
-        <v>72.45112196162609</v>
+        <v>72.45112196162449</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>722.5561044572627</v>
+        <v>722.5561044572624</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>33.78651057034278</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>224.1006295357842</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27435,10 +27435,10 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.264309024945</v>
+        <v>12.76181203480587</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27593,13 +27593,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>62.10179605696689</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27615,22 +27615,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>350.504879224449</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>294.8896947407055</v>
@@ -27666,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>74.65813289307471</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27776,7 +27776,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>114.1895583998069</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27794,7 +27794,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>18.4496713308867</v>
       </c>
       <c r="W7" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,19 +27852,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>101.1659342747063</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
         <v>353.914520725013</v>
@@ -27918,10 +27918,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>348.7181951507457</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28058,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>46.56822717969948</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>230.0570341340374</v>
       </c>
       <c r="V10" t="n">
-        <v>204.5197084139514</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -29985,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>1.0453962089344e-13</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>1.0453962089344e-13</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>1.0453962089344e-13</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>1.0453962089344e-13</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>1.0453962089344e-13</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>1.0453962089344e-13</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1.0453962089344e-13</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1.0453962089344e-13</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30036,22 +30036,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>1.0453962089344e-13</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>1.0453962089344e-13</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>1.0453962089344e-13</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>1.0453962089344e-13</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>1.0453962089344e-13</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>3.392519777233915e-12</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -30143,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>1.0453962089344e-13</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>1.0453962089344e-13</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>1.0453962089344e-13</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>1.0453962089344e-13</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>1.0453962089344e-13</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>1.0453962089344e-13</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1.0453962089344e-13</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1.0453962089344e-13</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>1.0453962089344e-13</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>1.0453962089344e-13</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>1.0453962089344e-13</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>1.0453962089344e-13</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>1.0453962089344e-13</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>1.0453962089344e-13</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>1.0453962089344e-13</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>1.0453962089344e-13</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>1.0453962089344e-13</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>1.0453962089344e-13</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>1.0453962089344e-13</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>1.0453962089344e-13</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>1.0453962089344e-13</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>1.0453962089344e-13</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>1.0453962089344e-13</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>1.0453962089344e-13</v>
       </c>
     </row>
     <row r="38">
@@ -30222,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30273,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>1.939537063669348e-12</v>
       </c>
     </row>
     <row r="39">
@@ -30380,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
     </row>
     <row r="41">
@@ -30459,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30510,25 +30510,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
     </row>
     <row r="42">
@@ -30617,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>6.111389260701766e-12</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
     </row>
     <row r="44">
@@ -30696,28 +30696,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30747,25 +30747,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>8.668621376273222e-13</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
     </row>
     <row r="45">
@@ -30854,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
     </row>
   </sheetData>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.537754638471368</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>483.7766911539696</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>483.7766911539696</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>483.776691153968</v>
+        <v>483.7766911539696</v>
       </c>
       <c r="O2" t="n">
-        <v>483.776691153968</v>
+        <v>97.9640381609856</v>
       </c>
       <c r="P2" t="n">
-        <v>483.776691153968</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,31 +34777,31 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
-        <v>483.776691153968</v>
+        <v>483.7766911539696</v>
       </c>
       <c r="L3" t="n">
-        <v>483.776691153968</v>
+        <v>483.7766911539696</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>93.66335920375458</v>
       </c>
       <c r="N3" t="n">
-        <v>285.2574796026361</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>483.776691153968</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>483.7766911539696</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34862,7 +34862,7 @@
         <v>228.8157587937749</v>
       </c>
       <c r="L4" t="n">
-        <v>71.39487192408751</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M4" t="n">
         <v>395.137166636617</v>
@@ -34874,7 +34874,7 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P4" t="n">
-        <v>293.5345574968697</v>
+        <v>6.657387709427471</v>
       </c>
       <c r="Q4" t="n">
         <v>128.2829598391535</v>
@@ -34935,7 +34935,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
         <v>556.2278131155941</v>
@@ -34947,13 +34947,13 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>167.4878420635545</v>
+      </c>
+      <c r="P5" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="O5" t="n">
-        <v>533.7539620806206</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35014,16 +35014,16 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="L6" t="n">
-        <v>556.2278131155941</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="M6" t="n">
-        <v>67.9041137177578</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -35032,10 +35032,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
         <v>82.84778796434657</v>
@@ -35093,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>58.07204871127072</v>
+        <v>58.07204871127134</v>
       </c>
       <c r="K7" t="n">
         <v>228.8157587937749</v>
@@ -35178,10 +35178,10 @@
         <v>556.2278131155941</v>
       </c>
       <c r="L8" t="n">
-        <v>533.7539620806207</v>
+        <v>415.0101894726381</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -35190,13 +35190,13 @@
         <v>556.2278131155941</v>
       </c>
       <c r="P8" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,28 +35248,28 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>150.7519016821044</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>556.2278131155941</v>
+        <v>158.2737632597931</v>
       </c>
       <c r="N9" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
-        <v>188.528647712048</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>986.1121802895968</v>
@@ -35430,10 +35430,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>19.53098502454859</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,22 +35485,22 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
         <v>596.4494207761006</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M12" t="n">
-        <v>1066.653068662672</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="N12" t="n">
-        <v>163.8547131678031</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -35649,7 +35649,7 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
         <v>939.015199615431</v>
@@ -35661,16 +35661,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
-        <v>462.7739363632869</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>460.6924035395789</v>
+        <v>181.2265984013693</v>
       </c>
       <c r="R14" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35737,16 +35737,16 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>928.4912652212506</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>479.7101968766545</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35886,10 +35886,10 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
-        <v>69.78487510406583</v>
+        <v>548.1076711799159</v>
       </c>
       <c r="L17" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>1014.430405473796</v>
@@ -35904,7 +35904,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
         <v>118.7437726079824</v>
@@ -35959,16 +35959,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L18" t="n">
-        <v>634.6913501810429</v>
+        <v>225.1119744769387</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -35983,7 +35983,7 @@
         <v>723.4320374126243</v>
       </c>
       <c r="Q18" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
         <v>722.7356646217162</v>
@@ -36129,10 +36129,10 @@
         <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>238.7351072494335</v>
+        <v>886.8993927061629</v>
       </c>
       <c r="O20" t="n">
         <v>853.6814647988001</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M21" t="n">
-        <v>1066.653068662672</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36281,7 +36281,7 @@
         <v>58.07204871127072</v>
       </c>
       <c r="K22" t="n">
-        <v>228.8157587937781</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L22" t="n">
         <v>358.2720417115361</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
         <v>722.7356646217162</v>
@@ -36366,19 +36366,19 @@
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>428.7489458104537</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
         <v>118.7437726079824</v>
@@ -36594,10 +36594,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>939.015199615431</v>
@@ -36612,10 +36612,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>86.80031487885682</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q26" t="n">
-        <v>460.6924035395789</v>
+        <v>188.5286477120479</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36834,16 +36834,16 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L29" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M29" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O29" t="n">
         <v>853.6814647988001</v>
@@ -36852,10 +36852,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q29" t="n">
-        <v>188.5286477120479</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M30" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>148.0605083925437</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
         <v>722.7356646217162</v>
@@ -37077,13 +37077,13 @@
         <v>939.015199615431</v>
       </c>
       <c r="M32" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O32" t="n">
-        <v>106.3043917586367</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
         <v>715.433615311038</v>
@@ -37153,13 +37153,13 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>459.6574502083422</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>928.4912652212506</v>
       </c>
       <c r="O33" t="n">
         <v>898.4659373853249</v>
@@ -37168,7 +37168,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
         <v>722.7356646217162</v>
@@ -37314,10 +37314,10 @@
         <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>238.7351072494335</v>
+        <v>886.8993927061592</v>
       </c>
       <c r="O35" t="n">
         <v>853.6814647988001</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -37393,10 +37393,10 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>726.639074856202</v>
       </c>
       <c r="N36" t="n">
-        <v>1000.833691266097</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37405,10 +37405,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>58.07204871127072</v>
+        <v>58.07204871127083</v>
       </c>
       <c r="K37" t="n">
-        <v>228.8157587937749</v>
+        <v>228.815758793775</v>
       </c>
       <c r="L37" t="n">
-        <v>358.2720417115361</v>
+        <v>358.2720417115362</v>
       </c>
       <c r="M37" t="n">
-        <v>395.137166636617</v>
+        <v>395.1371666366171</v>
       </c>
       <c r="N37" t="n">
-        <v>381.3045564404402</v>
+        <v>381.3045564404403</v>
       </c>
       <c r="O37" t="n">
-        <v>359.0183117977405</v>
+        <v>359.0183117977406</v>
       </c>
       <c r="P37" t="n">
-        <v>293.5345574968697</v>
+        <v>293.5345574968698</v>
       </c>
       <c r="Q37" t="n">
-        <v>128.2829598391535</v>
+        <v>128.2829598391536</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37548,13 +37548,13 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
-        <v>939.015199615431</v>
+        <v>839.8024120319934</v>
       </c>
       <c r="M38" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>333.1613907719469</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O38" t="n">
         <v>853.6814647988001</v>
@@ -37563,7 +37563,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
         <v>118.7437726079824</v>
@@ -37630,16 +37630,16 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>205.0592278086264</v>
+        <v>726.639074856202</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O39" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>58.07204871127072</v>
+        <v>58.07204871127087</v>
       </c>
       <c r="K40" t="n">
-        <v>228.8157587937749</v>
+        <v>228.8157587937751</v>
       </c>
       <c r="L40" t="n">
-        <v>358.2720417115361</v>
+        <v>358.2720417115362</v>
       </c>
       <c r="M40" t="n">
-        <v>395.137166636617</v>
+        <v>395.1371666366171</v>
       </c>
       <c r="N40" t="n">
-        <v>381.3045564404402</v>
+        <v>381.3045564404403</v>
       </c>
       <c r="O40" t="n">
-        <v>359.0183117977405</v>
+        <v>359.0183117977406</v>
       </c>
       <c r="P40" t="n">
-        <v>293.5345574968697</v>
+        <v>293.5345574968698</v>
       </c>
       <c r="Q40" t="n">
-        <v>128.2829598391535</v>
+        <v>128.2829598391536</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37788,10 +37788,10 @@
         <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>451.905163379929</v>
+        <v>886.8993927061601</v>
       </c>
       <c r="O41" t="n">
         <v>853.6814647988001</v>
@@ -37800,10 +37800,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,31 +37855,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>230.9082963568903</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>58.07204871127072</v>
+        <v>58.07204871127087</v>
       </c>
       <c r="K43" t="n">
-        <v>228.8157587937749</v>
+        <v>228.8157587937751</v>
       </c>
       <c r="L43" t="n">
-        <v>358.2720417115361</v>
+        <v>358.2720417115423</v>
       </c>
       <c r="M43" t="n">
-        <v>395.137166636617</v>
+        <v>395.1371666366171</v>
       </c>
       <c r="N43" t="n">
-        <v>381.3045564404402</v>
+        <v>381.3045564404403</v>
       </c>
       <c r="O43" t="n">
-        <v>359.0183117977405</v>
+        <v>359.0183117977406</v>
       </c>
       <c r="P43" t="n">
-        <v>293.5345574968659</v>
+        <v>293.5345574968698</v>
       </c>
       <c r="Q43" t="n">
-        <v>128.2829598391535</v>
+        <v>128.2829598391536</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>1014.430405473796</v>
+        <v>846.4895085811905</v>
       </c>
       <c r="N44" t="n">
         <v>986.1121802895968</v>
@@ -38037,10 +38037,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>94.10236418953542</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -38107,19 +38107,19 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>928.4912652212506</v>
       </c>
       <c r="O45" t="n">
-        <v>738.7136072886926</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P45" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>58.07204871127072</v>
+        <v>58.07204871127087</v>
       </c>
       <c r="K46" t="n">
-        <v>228.8157587937749</v>
+        <v>228.8157587937751</v>
       </c>
       <c r="L46" t="n">
-        <v>358.2720417115361</v>
+        <v>358.2720417115362</v>
       </c>
       <c r="M46" t="n">
-        <v>395.137166636617</v>
+        <v>395.1371666366171</v>
       </c>
       <c r="N46" t="n">
-        <v>381.3045564404402</v>
+        <v>381.3045564404403</v>
       </c>
       <c r="O46" t="n">
-        <v>359.0183117977405</v>
+        <v>359.0183117977406</v>
       </c>
       <c r="P46" t="n">
-        <v>293.5345574968697</v>
+        <v>293.5345574968698</v>
       </c>
       <c r="Q46" t="n">
-        <v>128.2829598391535</v>
+        <v>128.2829598391536</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
